--- a/TRANSLATIONS/01_UPLOAD_YOUR_CONTRIBUTIONS/ko/KO_Gameplay_ItemGets&ItemTags.xlsx
+++ b/TRANSLATIONS/01_UPLOAD_YOUR_CONTRIBUTIONS/ko/KO_Gameplay_ItemGets&ItemTags.xlsx
@@ -3499,7 +3499,7 @@
     <t>每日试训</t>
   </si>
   <si>
-    <t>일일 임무</t>
+    <t>일일 훈련</t>
   </si>
   <si>
     <t>ItemGets_25257_Desc</t>
@@ -4428,18 +4428,18 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4456,24 +4456,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4690,9 +4687,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="9" max="9" width="20.25"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -4704,7 +4698,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
         <v>8.0</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -4713,10 +4707,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4730,7 +4725,7 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>9.0</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -4739,10 +4734,11 @@
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4756,7 +4752,7 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>10.0</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -4765,10 +4761,11 @@
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4782,7 +4779,7 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>11.0</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -4791,10 +4788,11 @@
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4808,7 +4806,7 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>12.0</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -4817,10 +4815,11 @@
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4834,7 +4833,7 @@
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>13.0</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -4843,10 +4842,11 @@
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4860,7 +4860,7 @@
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>14.0</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -4869,10 +4869,11 @@
       <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4886,7 +4887,7 @@
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>15.0</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -4895,10 +4896,11 @@
       <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4912,7 +4914,7 @@
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>16.0</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -4921,10 +4923,11 @@
       <c r="F9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4938,7 +4941,7 @@
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>17.0</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4947,10 +4950,11 @@
       <c r="F10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4964,7 +4968,7 @@
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>18.0</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -4973,10 +4977,11 @@
       <c r="F11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4990,7 +4995,7 @@
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>19.0</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -4999,10 +5004,11 @@
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5016,7 +5022,7 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>20.0</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -5025,10 +5031,11 @@
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5042,7 +5049,7 @@
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>21.0</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -5051,10 +5058,11 @@
       <c r="F14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5068,7 +5076,7 @@
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>22.0</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -5077,10 +5085,11 @@
       <c r="F15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5094,7 +5103,7 @@
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>23.0</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -5103,10 +5112,11 @@
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5120,7 +5130,7 @@
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>24.0</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -5129,10 +5139,11 @@
       <c r="F17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5146,7 +5157,7 @@
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>25.0</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -5155,10 +5166,11 @@
       <c r="F18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5172,7 +5184,7 @@
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>26.0</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -5181,10 +5193,11 @@
       <c r="F19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5198,7 +5211,7 @@
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>27.0</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -5207,10 +5220,11 @@
       <c r="F20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="5" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5224,7 +5238,7 @@
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>28.0</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -5233,10 +5247,11 @@
       <c r="F21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="5" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5250,7 +5265,7 @@
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>29.0</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -5259,10 +5274,11 @@
       <c r="F22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="G22" s="3"/>
+      <c r="H22" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="5" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5276,7 +5292,7 @@
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>30.0</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -5285,10 +5301,11 @@
       <c r="F23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="5" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5302,7 +5319,7 @@
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>31.0</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -5311,10 +5328,11 @@
       <c r="F24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="G24" s="3"/>
+      <c r="H24" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="5" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5328,7 +5346,7 @@
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>32.0</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -5337,10 +5355,11 @@
       <c r="F25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="G25" s="3"/>
+      <c r="H25" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5354,7 +5373,7 @@
       <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>33.0</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -5363,10 +5382,11 @@
       <c r="F26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="G26" s="3"/>
+      <c r="H26" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="5" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5380,7 +5400,7 @@
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>34.0</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -5389,10 +5409,11 @@
       <c r="F27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="G27" s="3"/>
+      <c r="H27" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="5" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5406,7 +5427,7 @@
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>35.0</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -5415,10 +5436,11 @@
       <c r="F28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="5" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5432,7 +5454,7 @@
       <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>36.0</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -5441,10 +5463,11 @@
       <c r="F29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="G29" s="3"/>
+      <c r="H29" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="5" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5458,7 +5481,7 @@
       <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>37.0</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -5467,10 +5490,11 @@
       <c r="F30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="G30" s="3"/>
+      <c r="H30" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="5" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5484,7 +5508,7 @@
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>38.0</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -5493,10 +5517,11 @@
       <c r="F31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="G31" s="3"/>
+      <c r="H31" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="5" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5510,7 +5535,7 @@
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>39.0</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -5519,10 +5544,11 @@
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="G32" s="3"/>
+      <c r="H32" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="5" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5536,7 +5562,7 @@
       <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>40.0</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -5545,10 +5571,11 @@
       <c r="F33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="G33" s="3"/>
+      <c r="H33" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="5" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5562,7 +5589,7 @@
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>41.0</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -5571,10 +5598,11 @@
       <c r="F34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="G34" s="3"/>
+      <c r="H34" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5588,7 +5616,7 @@
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>42.0</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -5597,10 +5625,11 @@
       <c r="F35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="G35" s="3"/>
+      <c r="H35" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="5" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5614,7 +5643,7 @@
       <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>43.0</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -5623,10 +5652,11 @@
       <c r="F36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="G36" s="3"/>
+      <c r="H36" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="5" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5640,7 +5670,7 @@
       <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>44.0</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -5649,10 +5679,11 @@
       <c r="F37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="G37" s="3"/>
+      <c r="H37" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="5" t="s">
         <v>150</v>
       </c>
     </row>
@@ -5666,7 +5697,7 @@
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>45.0</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -5675,10 +5706,11 @@
       <c r="F38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="G38" s="3"/>
+      <c r="H38" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="5" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5692,7 +5724,7 @@
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>46.0</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -5701,10 +5733,11 @@
       <c r="F39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="G39" s="3"/>
+      <c r="H39" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="5" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5718,7 +5751,7 @@
       <c r="C40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>47.0</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -5727,10 +5760,11 @@
       <c r="F40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="G40" s="3"/>
+      <c r="H40" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="5" t="s">
         <v>162</v>
       </c>
     </row>
@@ -5744,7 +5778,7 @@
       <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>48.0</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -5753,10 +5787,11 @@
       <c r="F41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="G41" s="3"/>
+      <c r="H41" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="5" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5770,7 +5805,7 @@
       <c r="C42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>49.0</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -5779,10 +5814,11 @@
       <c r="F42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="G42" s="3"/>
+      <c r="H42" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="5" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5796,7 +5832,7 @@
       <c r="C43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>50.0</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -5805,10 +5841,11 @@
       <c r="F43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="G43" s="3"/>
+      <c r="H43" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="5" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5822,7 +5859,7 @@
       <c r="C44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>51.0</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -5831,10 +5868,11 @@
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="G44" s="3"/>
+      <c r="H44" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" s="5" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5848,7 +5886,7 @@
       <c r="C45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>52.0</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -5857,10 +5895,11 @@
       <c r="F45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="G45" s="3"/>
+      <c r="H45" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="5" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5874,7 +5913,7 @@
       <c r="C46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>53.0</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -5883,10 +5922,11 @@
       <c r="F46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="G46" s="3"/>
+      <c r="H46" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" s="5" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5900,7 +5940,7 @@
       <c r="C47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>54.0</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -5909,10 +5949,11 @@
       <c r="F47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="G47" s="3"/>
+      <c r="H47" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="5" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5926,7 +5967,7 @@
       <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <v>55.0</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -5935,10 +5976,11 @@
       <c r="F48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="G48" s="3"/>
+      <c r="H48" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I48" s="5" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5952,7 +5994,7 @@
       <c r="C49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>56.0</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -5961,10 +6003,11 @@
       <c r="F49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="G49" s="3"/>
+      <c r="H49" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" s="5" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5978,7 +6021,7 @@
       <c r="C50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <v>57.0</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -5987,10 +6030,11 @@
       <c r="F50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="G50" s="3"/>
+      <c r="H50" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="6" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6004,7 +6048,7 @@
       <c r="C51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>58.0</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -6013,10 +6057,11 @@
       <c r="F51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="G51" s="3"/>
+      <c r="H51" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" s="6" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6030,7 +6075,7 @@
       <c r="C52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>59.0</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -6039,10 +6084,11 @@
       <c r="F52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="G52" s="3"/>
+      <c r="H52" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I52" s="6" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6056,7 +6102,7 @@
       <c r="C53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>60.0</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -6065,10 +6111,11 @@
       <c r="F53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="G53" s="3"/>
+      <c r="H53" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="I53" s="6" t="s">
         <v>214</v>
       </c>
     </row>
@@ -6082,7 +6129,7 @@
       <c r="C54" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <v>61.0</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -6091,10 +6138,11 @@
       <c r="F54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="G54" s="3"/>
+      <c r="H54" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="I54" s="6" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6108,7 +6156,7 @@
       <c r="C55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <v>62.0</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -6117,10 +6165,11 @@
       <c r="F55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="G55" s="3"/>
+      <c r="H55" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="I55" s="6" t="s">
         <v>222</v>
       </c>
     </row>
@@ -6134,7 +6183,7 @@
       <c r="C56" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <v>63.0</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -6143,10 +6192,11 @@
       <c r="F56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="G56" s="3"/>
+      <c r="H56" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="I56" s="6" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6160,7 +6210,7 @@
       <c r="C57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <v>64.0</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -6169,10 +6219,11 @@
       <c r="F57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="G57" s="3"/>
+      <c r="H57" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="I57" s="6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6186,7 +6237,7 @@
       <c r="C58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="2">
         <v>65.0</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -6195,10 +6246,11 @@
       <c r="F58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="G58" s="3"/>
+      <c r="H58" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="I58" s="6" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6212,7 +6264,7 @@
       <c r="C59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="2">
         <v>66.0</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -6221,10 +6273,11 @@
       <c r="F59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="G59" s="3"/>
+      <c r="H59" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="I59" s="6" t="s">
         <v>238</v>
       </c>
     </row>
@@ -6238,7 +6291,7 @@
       <c r="C60" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="2">
         <v>67.0</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -6247,10 +6300,11 @@
       <c r="F60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="G60" s="3"/>
+      <c r="H60" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="I60" s="6" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6264,7 +6318,7 @@
       <c r="C61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="2">
         <v>68.0</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -6273,10 +6327,11 @@
       <c r="F61" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="G61" s="3"/>
+      <c r="H61" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="I61" s="6" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6290,7 +6345,7 @@
       <c r="C62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="2">
         <v>69.0</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -6299,10 +6354,11 @@
       <c r="F62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="G62" s="3"/>
+      <c r="H62" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="I62" s="5" t="s">
         <v>250</v>
       </c>
     </row>
@@ -6316,7 +6372,7 @@
       <c r="C63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="2">
         <v>70.0</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -6325,10 +6381,11 @@
       <c r="F63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="G63" s="3"/>
+      <c r="H63" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="I63" s="5" t="s">
         <v>254</v>
       </c>
     </row>
@@ -6342,7 +6399,7 @@
       <c r="C64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="2">
         <v>71.0</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -6351,10 +6408,11 @@
       <c r="F64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="G64" s="3"/>
+      <c r="H64" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="I64" s="5" t="s">
         <v>258</v>
       </c>
     </row>
@@ -6368,7 +6426,7 @@
       <c r="C65" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="2">
         <v>72.0</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -6377,10 +6435,11 @@
       <c r="F65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="G65" s="3"/>
+      <c r="H65" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="I65" s="5" t="s">
         <v>262</v>
       </c>
     </row>
@@ -6394,7 +6453,7 @@
       <c r="C66" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="2">
         <v>73.0</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -6403,10 +6462,11 @@
       <c r="F66" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="G66" s="3"/>
+      <c r="H66" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="I66" s="5" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6420,7 +6480,7 @@
       <c r="C67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="2">
         <v>74.0</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -6429,10 +6489,11 @@
       <c r="F67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="G67" s="3"/>
+      <c r="H67" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I67" s="5" t="s">
         <v>270</v>
       </c>
     </row>
@@ -6446,7 +6507,7 @@
       <c r="C68" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="2">
         <v>75.0</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -6455,10 +6516,11 @@
       <c r="F68" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="G68" s="3"/>
+      <c r="H68" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="I68" s="6" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6472,7 +6534,7 @@
       <c r="C69" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="2">
         <v>76.0</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -6481,10 +6543,11 @@
       <c r="F69" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="G69" s="3"/>
+      <c r="H69" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="I69" s="6" t="s">
         <v>278</v>
       </c>
     </row>
@@ -6498,7 +6561,7 @@
       <c r="C70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="2">
         <v>77.0</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -6507,10 +6570,11 @@
       <c r="F70" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="G70" s="3"/>
+      <c r="H70" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="I70" s="6" t="s">
         <v>282</v>
       </c>
     </row>
@@ -6524,7 +6588,7 @@
       <c r="C71" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="2">
         <v>78.0</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -6533,10 +6597,11 @@
       <c r="F71" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="G71" s="3"/>
+      <c r="H71" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="I71" s="4" t="s">
+      <c r="I71" s="6" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6550,7 +6615,7 @@
       <c r="C72" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="2">
         <v>79.0</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -6559,10 +6624,11 @@
       <c r="F72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="G72" s="3"/>
+      <c r="H72" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="I72" s="4" t="s">
+      <c r="I72" s="6" t="s">
         <v>290</v>
       </c>
     </row>
@@ -6576,7 +6642,7 @@
       <c r="C73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="2">
         <v>80.0</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -6585,10 +6651,11 @@
       <c r="F73" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="G73" s="3"/>
+      <c r="H73" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="I73" s="4" t="s">
+      <c r="I73" s="6" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6602,7 +6669,7 @@
       <c r="C74" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="2">
         <v>81.0</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -6611,10 +6678,11 @@
       <c r="F74" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="G74" s="3"/>
+      <c r="H74" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="I74" s="6" t="s">
         <v>298</v>
       </c>
     </row>
@@ -6628,7 +6696,7 @@
       <c r="C75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="2">
         <v>82.0</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -6637,10 +6705,11 @@
       <c r="F75" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="G75" s="3"/>
+      <c r="H75" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="I75" s="6" t="s">
         <v>302</v>
       </c>
     </row>
@@ -6654,7 +6723,7 @@
       <c r="C76" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="2">
         <v>83.0</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -6663,10 +6732,11 @@
       <c r="F76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="G76" s="3"/>
+      <c r="H76" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="I76" s="6" t="s">
         <v>306</v>
       </c>
     </row>
@@ -6680,7 +6750,7 @@
       <c r="C77" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="2">
         <v>84.0</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -6689,10 +6759,11 @@
       <c r="F77" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="G77" s="3"/>
+      <c r="H77" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="I77" s="4" t="s">
+      <c r="I77" s="6" t="s">
         <v>310</v>
       </c>
     </row>
@@ -6706,7 +6777,7 @@
       <c r="C78" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="2">
         <v>85.0</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -6715,10 +6786,11 @@
       <c r="F78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="G78" s="3"/>
+      <c r="H78" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="I78" s="4" t="s">
+      <c r="I78" s="6" t="s">
         <v>310</v>
       </c>
     </row>
@@ -6732,7 +6804,7 @@
       <c r="C79" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="2">
         <v>86.0</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -6741,10 +6813,11 @@
       <c r="F79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="G79" s="3"/>
+      <c r="H79" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="I79" s="6" t="s">
         <v>310</v>
       </c>
     </row>
@@ -6758,7 +6831,7 @@
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="2">
         <v>87.0</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -6767,10 +6840,11 @@
       <c r="F80" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="G80" s="3"/>
+      <c r="H80" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="I80" s="5" t="s">
+      <c r="I80" s="3" t="s">
         <v>320</v>
       </c>
     </row>
@@ -6784,7 +6858,7 @@
       <c r="C81" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="2">
         <v>88.0</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -6793,10 +6867,11 @@
       <c r="F81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="G81" s="3"/>
+      <c r="H81" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="I81" s="5" t="s">
+      <c r="I81" s="3" t="s">
         <v>324</v>
       </c>
     </row>
@@ -6810,7 +6885,7 @@
       <c r="C82" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="2">
         <v>89.0</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -6819,10 +6894,11 @@
       <c r="F82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="G82" s="3"/>
+      <c r="H82" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="I82" s="5" t="s">
+      <c r="I82" s="3" t="s">
         <v>328</v>
       </c>
     </row>
@@ -6836,7 +6912,7 @@
       <c r="C83" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="2">
         <v>90.0</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -6845,10 +6921,11 @@
       <c r="F83" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="G83" s="3"/>
+      <c r="H83" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="I83" s="5" t="s">
+      <c r="I83" s="3" t="s">
         <v>332</v>
       </c>
     </row>
@@ -6862,7 +6939,7 @@
       <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="2">
         <v>91.0</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -6871,10 +6948,11 @@
       <c r="F84" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="G84" s="3"/>
+      <c r="H84" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="I84" s="5" t="s">
+      <c r="I84" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -6888,7 +6966,7 @@
       <c r="C85" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="2">
         <v>92.0</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -6897,10 +6975,11 @@
       <c r="F85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="G85" s="3"/>
+      <c r="H85" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="I85" s="5" t="s">
+      <c r="I85" s="3" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6914,7 +6993,7 @@
       <c r="C86" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="2">
         <v>93.0</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -6923,10 +7002,11 @@
       <c r="F86" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="G86" s="3"/>
+      <c r="H86" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="I86" s="5" t="s">
+      <c r="I86" s="3" t="s">
         <v>344</v>
       </c>
     </row>
@@ -6940,7 +7020,7 @@
       <c r="C87" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="2">
         <v>94.0</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -6949,10 +7029,11 @@
       <c r="F87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="G87" s="3"/>
+      <c r="H87" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I87" s="5" t="s">
+      <c r="I87" s="3" t="s">
         <v>348</v>
       </c>
     </row>
@@ -6966,7 +7047,7 @@
       <c r="C88" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="2">
         <v>95.0</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -6975,10 +7056,11 @@
       <c r="F88" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="G88" s="3"/>
+      <c r="H88" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="I88" s="5" t="s">
+      <c r="I88" s="3" t="s">
         <v>352</v>
       </c>
     </row>
@@ -6992,7 +7074,7 @@
       <c r="C89" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="2">
         <v>96.0</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -7001,10 +7083,11 @@
       <c r="F89" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="G89" s="3"/>
+      <c r="H89" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="I89" s="5" t="s">
+      <c r="I89" s="3" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7018,7 +7101,7 @@
       <c r="C90" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="2">
         <v>97.0</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -7027,10 +7110,11 @@
       <c r="F90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="G90" s="3"/>
+      <c r="H90" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="I90" s="5" t="s">
+      <c r="I90" s="3" t="s">
         <v>360</v>
       </c>
     </row>
@@ -7044,7 +7128,7 @@
       <c r="C91" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="2">
         <v>98.0</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -7053,10 +7137,11 @@
       <c r="F91" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="G91" s="3"/>
+      <c r="H91" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="I91" s="5" t="s">
+      <c r="I91" s="3" t="s">
         <v>364</v>
       </c>
     </row>
@@ -7070,7 +7155,7 @@
       <c r="C92" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="2">
         <v>99.0</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -7079,10 +7164,11 @@
       <c r="F92" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="G92" s="3"/>
+      <c r="H92" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="I92" s="5" t="s">
+      <c r="I92" s="3" t="s">
         <v>368</v>
       </c>
     </row>
@@ -7096,7 +7182,7 @@
       <c r="C93" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="2">
         <v>100.0</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -7105,10 +7191,11 @@
       <c r="F93" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="G93" s="3"/>
+      <c r="H93" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="I93" s="5" t="s">
+      <c r="I93" s="3" t="s">
         <v>372</v>
       </c>
     </row>
@@ -7122,7 +7209,7 @@
       <c r="C94" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="2">
         <v>101.0</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -7131,10 +7218,11 @@
       <c r="F94" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="G94" s="3"/>
+      <c r="H94" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="I94" s="5" t="s">
+      <c r="I94" s="3" t="s">
         <v>376</v>
       </c>
     </row>
@@ -7148,7 +7236,7 @@
       <c r="C95" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="2">
         <v>102.0</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -7157,10 +7245,11 @@
       <c r="F95" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="G95" s="3"/>
+      <c r="H95" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="I95" s="5" t="s">
+      <c r="I95" s="3" t="s">
         <v>380</v>
       </c>
     </row>
@@ -7174,7 +7263,7 @@
       <c r="C96" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="2">
         <v>103.0</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -7183,10 +7272,11 @@
       <c r="F96" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="G96" s="3"/>
+      <c r="H96" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="I96" s="5" t="s">
+      <c r="I96" s="3" t="s">
         <v>384</v>
       </c>
     </row>
@@ -7200,7 +7290,7 @@
       <c r="C97" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="2">
         <v>104.0</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -7209,10 +7299,11 @@
       <c r="F97" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="G97" s="3"/>
+      <c r="H97" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="I97" s="5" t="s">
+      <c r="I97" s="3" t="s">
         <v>388</v>
       </c>
     </row>
@@ -7226,7 +7317,7 @@
       <c r="C98" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="2">
         <v>105.0</v>
       </c>
       <c r="E98" s="1" t="s">
@@ -7235,10 +7326,11 @@
       <c r="F98" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="G98" s="3"/>
+      <c r="H98" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="I98" s="5" t="s">
+      <c r="I98" s="3" t="s">
         <v>392</v>
       </c>
     </row>
@@ -7252,7 +7344,7 @@
       <c r="C99" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="2">
         <v>106.0</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -7261,10 +7353,11 @@
       <c r="F99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H99" s="2" t="s">
+      <c r="G99" s="3"/>
+      <c r="H99" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="I99" s="5" t="s">
+      <c r="I99" s="3" t="s">
         <v>396</v>
       </c>
     </row>
@@ -7278,7 +7371,7 @@
       <c r="C100" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="2">
         <v>107.0</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -7287,10 +7380,11 @@
       <c r="F100" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="G100" s="3"/>
+      <c r="H100" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="I100" s="5" t="s">
+      <c r="I100" s="3" t="s">
         <v>400</v>
       </c>
     </row>
@@ -7304,7 +7398,7 @@
       <c r="C101" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="2">
         <v>108.0</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -7313,10 +7407,11 @@
       <c r="F101" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="2" t="s">
+      <c r="G101" s="3"/>
+      <c r="H101" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="I101" s="5" t="s">
+      <c r="I101" s="3" t="s">
         <v>404</v>
       </c>
     </row>
@@ -7330,7 +7425,7 @@
       <c r="C102" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="2">
         <v>109.0</v>
       </c>
       <c r="E102" s="1" t="s">
@@ -7339,10 +7434,11 @@
       <c r="F102" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="G102" s="3"/>
+      <c r="H102" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="I102" s="5" t="s">
+      <c r="I102" s="3" t="s">
         <v>408</v>
       </c>
     </row>
@@ -7356,7 +7452,7 @@
       <c r="C103" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="2">
         <v>110.0</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -7365,10 +7461,11 @@
       <c r="F103" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="G103" s="3"/>
+      <c r="H103" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="I103" s="5" t="s">
+      <c r="I103" s="3" t="s">
         <v>412</v>
       </c>
     </row>
@@ -7382,7 +7479,7 @@
       <c r="C104" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="2">
         <v>111.0</v>
       </c>
       <c r="E104" s="1" t="s">
@@ -7391,10 +7488,11 @@
       <c r="F104" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H104" s="2" t="s">
+      <c r="G104" s="3"/>
+      <c r="H104" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="I104" s="5" t="s">
+      <c r="I104" s="3" t="s">
         <v>416</v>
       </c>
     </row>
@@ -7408,7 +7506,7 @@
       <c r="C105" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="2">
         <v>112.0</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -7417,10 +7515,11 @@
       <c r="F105" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="G105" s="3"/>
+      <c r="H105" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="I105" s="5" t="s">
+      <c r="I105" s="3" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7434,7 +7533,7 @@
       <c r="C106" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="2">
         <v>113.0</v>
       </c>
       <c r="E106" s="1" t="s">
@@ -7443,10 +7542,11 @@
       <c r="F106" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="G106" s="3"/>
+      <c r="H106" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="I106" s="5" t="s">
+      <c r="I106" s="3" t="s">
         <v>424</v>
       </c>
     </row>
@@ -7460,7 +7560,7 @@
       <c r="C107" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="2">
         <v>114.0</v>
       </c>
       <c r="E107" s="1" t="s">
@@ -7469,10 +7569,11 @@
       <c r="F107" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H107" s="2" t="s">
+      <c r="G107" s="3"/>
+      <c r="H107" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="I107" s="5" t="s">
+      <c r="I107" s="3" t="s">
         <v>428</v>
       </c>
     </row>
@@ -7486,7 +7587,7 @@
       <c r="C108" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="2">
         <v>115.0</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -7495,10 +7596,11 @@
       <c r="F108" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="G108" s="3"/>
+      <c r="H108" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="I108" s="5" t="s">
+      <c r="I108" s="3" t="s">
         <v>432</v>
       </c>
     </row>
@@ -7512,7 +7614,7 @@
       <c r="C109" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="2">
         <v>116.0</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -7521,10 +7623,11 @@
       <c r="F109" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H109" s="2" t="s">
+      <c r="G109" s="3"/>
+      <c r="H109" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="I109" s="5" t="s">
+      <c r="I109" s="3" t="s">
         <v>436</v>
       </c>
     </row>
@@ -7538,7 +7641,7 @@
       <c r="C110" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="2">
         <v>117.0</v>
       </c>
       <c r="E110" s="1" t="s">
@@ -7547,10 +7650,11 @@
       <c r="F110" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H110" s="2" t="s">
+      <c r="G110" s="3"/>
+      <c r="H110" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="I110" s="5" t="s">
+      <c r="I110" s="3" t="s">
         <v>440</v>
       </c>
     </row>
@@ -7564,7 +7668,7 @@
       <c r="C111" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="2">
         <v>118.0</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -7573,10 +7677,11 @@
       <c r="F111" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H111" s="2" t="s">
+      <c r="G111" s="3"/>
+      <c r="H111" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="I111" s="5" t="s">
+      <c r="I111" s="3" t="s">
         <v>444</v>
       </c>
     </row>
@@ -7590,7 +7695,7 @@
       <c r="C112" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="2">
         <v>119.0</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -7599,10 +7704,11 @@
       <c r="F112" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H112" s="2" t="s">
+      <c r="G112" s="3"/>
+      <c r="H112" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="I112" s="5" t="s">
+      <c r="I112" s="3" t="s">
         <v>448</v>
       </c>
     </row>
@@ -7616,7 +7722,7 @@
       <c r="C113" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="2">
         <v>120.0</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -7625,10 +7731,11 @@
       <c r="F113" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H113" s="2" t="s">
+      <c r="G113" s="3"/>
+      <c r="H113" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I113" s="5" t="s">
+      <c r="I113" s="3" t="s">
         <v>452</v>
       </c>
     </row>
@@ -7642,7 +7749,7 @@
       <c r="C114" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114" s="2">
         <v>121.0</v>
       </c>
       <c r="E114" s="1" t="s">
@@ -7651,10 +7758,11 @@
       <c r="F114" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H114" s="2" t="s">
+      <c r="G114" s="3"/>
+      <c r="H114" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="I114" s="5" t="s">
+      <c r="I114" s="3" t="s">
         <v>456</v>
       </c>
     </row>
@@ -7668,7 +7776,7 @@
       <c r="C115" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="2">
         <v>122.0</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -7677,10 +7785,11 @@
       <c r="F115" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H115" s="2" t="s">
+      <c r="G115" s="3"/>
+      <c r="H115" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="I115" s="5" t="s">
+      <c r="I115" s="3" t="s">
         <v>460</v>
       </c>
     </row>
@@ -7694,7 +7803,7 @@
       <c r="C116" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="2">
         <v>123.0</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -7703,10 +7812,11 @@
       <c r="F116" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H116" s="2" t="s">
+      <c r="G116" s="3"/>
+      <c r="H116" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="I116" s="5" t="s">
+      <c r="I116" s="3" t="s">
         <v>464</v>
       </c>
     </row>
@@ -7720,7 +7830,7 @@
       <c r="C117" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117" s="2">
         <v>124.0</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -7729,10 +7839,11 @@
       <c r="F117" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H117" s="2" t="s">
+      <c r="G117" s="3"/>
+      <c r="H117" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="I117" s="5" t="s">
+      <c r="I117" s="3" t="s">
         <v>468</v>
       </c>
     </row>
@@ -7746,7 +7857,7 @@
       <c r="C118" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118" s="2">
         <v>125.0</v>
       </c>
       <c r="E118" s="1" t="s">
@@ -7755,10 +7866,11 @@
       <c r="F118" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H118" s="2" t="s">
+      <c r="G118" s="3"/>
+      <c r="H118" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="I118" s="5" t="s">
+      <c r="I118" s="3" t="s">
         <v>472</v>
       </c>
     </row>
@@ -7772,7 +7884,7 @@
       <c r="C119" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119" s="2">
         <v>126.0</v>
       </c>
       <c r="E119" s="1" t="s">
@@ -7781,10 +7893,11 @@
       <c r="F119" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="G119" s="3"/>
+      <c r="H119" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="I119" s="5" t="s">
+      <c r="I119" s="3" t="s">
         <v>476</v>
       </c>
     </row>
@@ -7798,7 +7911,7 @@
       <c r="C120" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120" s="2">
         <v>127.0</v>
       </c>
       <c r="E120" s="1" t="s">
@@ -7807,10 +7920,11 @@
       <c r="F120" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H120" s="2" t="s">
+      <c r="G120" s="3"/>
+      <c r="H120" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="I120" s="5" t="s">
+      <c r="I120" s="3" t="s">
         <v>480</v>
       </c>
     </row>
@@ -7824,7 +7938,7 @@
       <c r="C121" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121" s="2">
         <v>128.0</v>
       </c>
       <c r="E121" s="1" t="s">
@@ -7833,10 +7947,11 @@
       <c r="F121" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H121" s="2" t="s">
+      <c r="G121" s="3"/>
+      <c r="H121" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="I121" s="5" t="s">
+      <c r="I121" s="3" t="s">
         <v>484</v>
       </c>
     </row>
@@ -7850,7 +7965,7 @@
       <c r="C122" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122" s="2">
         <v>129.0</v>
       </c>
       <c r="E122" s="1" t="s">
@@ -7859,10 +7974,11 @@
       <c r="F122" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H122" s="2" t="s">
+      <c r="G122" s="3"/>
+      <c r="H122" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="I122" s="5" t="s">
+      <c r="I122" s="3" t="s">
         <v>488</v>
       </c>
     </row>
@@ -7876,7 +7992,7 @@
       <c r="C123" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123" s="2">
         <v>130.0</v>
       </c>
       <c r="E123" s="1" t="s">
@@ -7885,10 +8001,11 @@
       <c r="F123" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H123" s="2" t="s">
+      <c r="G123" s="3"/>
+      <c r="H123" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="I123" s="5" t="s">
+      <c r="I123" s="3" t="s">
         <v>492</v>
       </c>
     </row>
@@ -7902,7 +8019,7 @@
       <c r="C124" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124" s="2">
         <v>131.0</v>
       </c>
       <c r="E124" s="1" t="s">
@@ -7911,10 +8028,11 @@
       <c r="F124" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H124" s="2" t="s">
+      <c r="G124" s="3"/>
+      <c r="H124" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="I124" s="5" t="s">
+      <c r="I124" s="3" t="s">
         <v>496</v>
       </c>
     </row>
@@ -7928,7 +8046,7 @@
       <c r="C125" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125" s="2">
         <v>132.0</v>
       </c>
       <c r="E125" s="1" t="s">
@@ -7937,10 +8055,11 @@
       <c r="F125" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H125" s="2" t="s">
+      <c r="G125" s="3"/>
+      <c r="H125" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="I125" s="5" t="s">
+      <c r="I125" s="3" t="s">
         <v>500</v>
       </c>
     </row>
@@ -7954,7 +8073,7 @@
       <c r="C126" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126" s="2">
         <v>133.0</v>
       </c>
       <c r="E126" s="1" t="s">
@@ -7963,10 +8082,11 @@
       <c r="F126" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H126" s="2" t="s">
+      <c r="G126" s="3"/>
+      <c r="H126" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="I126" s="5" t="s">
+      <c r="I126" s="3" t="s">
         <v>504</v>
       </c>
     </row>
@@ -7980,7 +8100,7 @@
       <c r="C127" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127" s="2">
         <v>134.0</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -7989,10 +8109,11 @@
       <c r="F127" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H127" s="2" t="s">
+      <c r="G127" s="3"/>
+      <c r="H127" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="I127" s="5" t="s">
+      <c r="I127" s="3" t="s">
         <v>508</v>
       </c>
     </row>
@@ -8006,7 +8127,7 @@
       <c r="C128" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128" s="2">
         <v>135.0</v>
       </c>
       <c r="E128" s="1" t="s">
@@ -8015,10 +8136,11 @@
       <c r="F128" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H128" s="2" t="s">
+      <c r="G128" s="3"/>
+      <c r="H128" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="I128" s="5" t="s">
+      <c r="I128" s="3" t="s">
         <v>512</v>
       </c>
     </row>
@@ -8032,7 +8154,7 @@
       <c r="C129" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129" s="2">
         <v>136.0</v>
       </c>
       <c r="E129" s="1" t="s">
@@ -8041,10 +8163,11 @@
       <c r="F129" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H129" s="2" t="s">
+      <c r="G129" s="3"/>
+      <c r="H129" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="I129" s="5" t="s">
+      <c r="I129" s="3" t="s">
         <v>516</v>
       </c>
     </row>
@@ -8058,7 +8181,7 @@
       <c r="C130" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130" s="2">
         <v>137.0</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -8067,10 +8190,11 @@
       <c r="F130" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H130" s="2" t="s">
+      <c r="G130" s="3"/>
+      <c r="H130" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="I130" s="5" t="s">
+      <c r="I130" s="3" t="s">
         <v>520</v>
       </c>
     </row>
@@ -8084,7 +8208,7 @@
       <c r="C131" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131" s="2">
         <v>138.0</v>
       </c>
       <c r="E131" s="1" t="s">
@@ -8093,10 +8217,11 @@
       <c r="F131" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H131" s="2" t="s">
+      <c r="G131" s="3"/>
+      <c r="H131" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="I131" s="5" t="s">
+      <c r="I131" s="3" t="s">
         <v>524</v>
       </c>
     </row>
@@ -8110,7 +8235,7 @@
       <c r="C132" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132" s="2">
         <v>139.0</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -8119,10 +8244,11 @@
       <c r="F132" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H132" s="2" t="s">
+      <c r="G132" s="3"/>
+      <c r="H132" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="I132" s="5" t="s">
+      <c r="I132" s="3" t="s">
         <v>528</v>
       </c>
     </row>
@@ -8136,7 +8262,7 @@
       <c r="C133" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133" s="2">
         <v>140.0</v>
       </c>
       <c r="E133" s="1" t="s">
@@ -8145,10 +8271,11 @@
       <c r="F133" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H133" s="2" t="s">
+      <c r="G133" s="3"/>
+      <c r="H133" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="I133" s="5" t="s">
+      <c r="I133" s="3" t="s">
         <v>532</v>
       </c>
     </row>
@@ -8162,7 +8289,7 @@
       <c r="C134" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134" s="2">
         <v>141.0</v>
       </c>
       <c r="E134" s="1" t="s">
@@ -8171,10 +8298,11 @@
       <c r="F134" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H134" s="2" t="s">
+      <c r="G134" s="3"/>
+      <c r="H134" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="I134" s="5" t="s">
+      <c r="I134" s="3" t="s">
         <v>536</v>
       </c>
     </row>
@@ -8188,7 +8316,7 @@
       <c r="C135" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135" s="2">
         <v>142.0</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -8197,10 +8325,11 @@
       <c r="F135" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H135" s="2" t="s">
+      <c r="G135" s="3"/>
+      <c r="H135" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="I135" s="5" t="s">
+      <c r="I135" s="3" t="s">
         <v>540</v>
       </c>
     </row>
@@ -8214,7 +8343,7 @@
       <c r="C136" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136" s="2">
         <v>143.0</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -8223,10 +8352,11 @@
       <c r="F136" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H136" s="2" t="s">
+      <c r="G136" s="3"/>
+      <c r="H136" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="I136" s="5" t="s">
+      <c r="I136" s="3" t="s">
         <v>544</v>
       </c>
     </row>
@@ -8240,7 +8370,7 @@
       <c r="C137" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137" s="2">
         <v>144.0</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -8249,10 +8379,11 @@
       <c r="F137" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H137" s="2" t="s">
+      <c r="G137" s="3"/>
+      <c r="H137" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="I137" s="5" t="s">
+      <c r="I137" s="3" t="s">
         <v>548</v>
       </c>
     </row>
@@ -8266,7 +8397,7 @@
       <c r="C138" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138" s="2">
         <v>145.0</v>
       </c>
       <c r="E138" s="1" t="s">
@@ -8275,10 +8406,11 @@
       <c r="F138" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H138" s="2" t="s">
+      <c r="G138" s="3"/>
+      <c r="H138" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="I138" s="5" t="s">
+      <c r="I138" s="3" t="s">
         <v>552</v>
       </c>
     </row>
@@ -8292,7 +8424,7 @@
       <c r="C139" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139" s="2">
         <v>146.0</v>
       </c>
       <c r="E139" s="1" t="s">
@@ -8301,10 +8433,11 @@
       <c r="F139" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H139" s="2" t="s">
+      <c r="G139" s="3"/>
+      <c r="H139" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="I139" s="5" t="s">
+      <c r="I139" s="3" t="s">
         <v>556</v>
       </c>
     </row>
@@ -8318,7 +8451,7 @@
       <c r="C140" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140" s="2">
         <v>147.0</v>
       </c>
       <c r="E140" s="1" t="s">
@@ -8327,10 +8460,11 @@
       <c r="F140" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H140" s="2" t="s">
+      <c r="G140" s="3"/>
+      <c r="H140" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="I140" s="5" t="s">
+      <c r="I140" s="3" t="s">
         <v>560</v>
       </c>
     </row>
@@ -8344,7 +8478,7 @@
       <c r="C141" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D141" s="2">
         <v>148.0</v>
       </c>
       <c r="E141" s="1" t="s">
@@ -8353,10 +8487,11 @@
       <c r="F141" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H141" s="2" t="s">
+      <c r="G141" s="3"/>
+      <c r="H141" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="I141" s="5" t="s">
+      <c r="I141" s="3" t="s">
         <v>564</v>
       </c>
     </row>
@@ -8370,7 +8505,7 @@
       <c r="C142" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142" s="2">
         <v>149.0</v>
       </c>
       <c r="E142" s="1" t="s">
@@ -8379,10 +8514,11 @@
       <c r="F142" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H142" s="2" t="s">
+      <c r="G142" s="3"/>
+      <c r="H142" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="I142" s="5" t="s">
+      <c r="I142" s="3" t="s">
         <v>568</v>
       </c>
     </row>
@@ -8396,7 +8532,7 @@
       <c r="C143" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143" s="2">
         <v>150.0</v>
       </c>
       <c r="E143" s="1" t="s">
@@ -8405,10 +8541,11 @@
       <c r="F143" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H143" s="2" t="s">
+      <c r="G143" s="3"/>
+      <c r="H143" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="I143" s="5" t="s">
+      <c r="I143" s="3" t="s">
         <v>572</v>
       </c>
     </row>
@@ -8422,7 +8559,7 @@
       <c r="C144" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144" s="2">
         <v>151.0</v>
       </c>
       <c r="E144" s="1" t="s">
@@ -8431,10 +8568,11 @@
       <c r="F144" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H144" s="2" t="s">
+      <c r="G144" s="3"/>
+      <c r="H144" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="I144" s="5" t="s">
+      <c r="I144" s="3" t="s">
         <v>576</v>
       </c>
     </row>
@@ -8448,7 +8586,7 @@
       <c r="C145" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145" s="2">
         <v>152.0</v>
       </c>
       <c r="E145" s="1" t="s">
@@ -8457,10 +8595,11 @@
       <c r="F145" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H145" s="2" t="s">
+      <c r="G145" s="3"/>
+      <c r="H145" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="I145" s="5" t="s">
+      <c r="I145" s="3" t="s">
         <v>580</v>
       </c>
     </row>
@@ -8474,7 +8613,7 @@
       <c r="C146" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D146" s="2">
         <v>153.0</v>
       </c>
       <c r="E146" s="1" t="s">
@@ -8483,10 +8622,11 @@
       <c r="F146" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H146" s="2" t="s">
+      <c r="G146" s="3"/>
+      <c r="H146" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="I146" s="5" t="s">
+      <c r="I146" s="3" t="s">
         <v>584</v>
       </c>
     </row>
@@ -8500,7 +8640,7 @@
       <c r="C147" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D147" s="2">
         <v>154.0</v>
       </c>
       <c r="E147" s="1" t="s">
@@ -8509,10 +8649,11 @@
       <c r="F147" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H147" s="2" t="s">
+      <c r="G147" s="3"/>
+      <c r="H147" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="I147" s="5" t="s">
+      <c r="I147" s="3" t="s">
         <v>588</v>
       </c>
     </row>
@@ -8526,7 +8667,7 @@
       <c r="C148" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D148" s="1">
+      <c r="D148" s="2">
         <v>155.0</v>
       </c>
       <c r="E148" s="1" t="s">
@@ -8535,10 +8676,11 @@
       <c r="F148" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H148" s="2" t="s">
+      <c r="G148" s="3"/>
+      <c r="H148" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="I148" s="5" t="s">
+      <c r="I148" s="3" t="s">
         <v>592</v>
       </c>
     </row>
@@ -8552,7 +8694,7 @@
       <c r="C149" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D149" s="2">
         <v>156.0</v>
       </c>
       <c r="E149" s="1" t="s">
@@ -8561,10 +8703,11 @@
       <c r="F149" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H149" s="2" t="s">
+      <c r="G149" s="3"/>
+      <c r="H149" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="I149" s="5" t="s">
+      <c r="I149" s="3" t="s">
         <v>596</v>
       </c>
     </row>
@@ -8578,7 +8721,7 @@
       <c r="C150" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D150" s="1">
+      <c r="D150" s="2">
         <v>157.0</v>
       </c>
       <c r="E150" s="1" t="s">
@@ -8587,10 +8730,11 @@
       <c r="F150" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H150" s="2" t="s">
+      <c r="G150" s="3"/>
+      <c r="H150" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="I150" s="5" t="s">
+      <c r="I150" s="3" t="s">
         <v>600</v>
       </c>
     </row>
@@ -8604,7 +8748,7 @@
       <c r="C151" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151" s="2">
         <v>158.0</v>
       </c>
       <c r="E151" s="1" t="s">
@@ -8613,10 +8757,11 @@
       <c r="F151" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H151" s="2" t="s">
+      <c r="G151" s="3"/>
+      <c r="H151" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="I151" s="5" t="s">
+      <c r="I151" s="3" t="s">
         <v>604</v>
       </c>
     </row>
@@ -8630,7 +8775,7 @@
       <c r="C152" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D152" s="1">
+      <c r="D152" s="2">
         <v>159.0</v>
       </c>
       <c r="E152" s="1" t="s">
@@ -8639,10 +8784,11 @@
       <c r="F152" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H152" s="2" t="s">
+      <c r="G152" s="3"/>
+      <c r="H152" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="I152" s="5" t="s">
+      <c r="I152" s="3" t="s">
         <v>608</v>
       </c>
     </row>
@@ -8656,7 +8802,7 @@
       <c r="C153" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D153" s="2">
         <v>160.0</v>
       </c>
       <c r="E153" s="1" t="s">
@@ -8665,10 +8811,11 @@
       <c r="F153" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H153" s="2" t="s">
+      <c r="G153" s="3"/>
+      <c r="H153" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="I153" s="5" t="s">
+      <c r="I153" s="3" t="s">
         <v>612</v>
       </c>
     </row>
@@ -8682,7 +8829,7 @@
       <c r="C154" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D154" s="2">
         <v>161.0</v>
       </c>
       <c r="E154" s="1" t="s">
@@ -8691,10 +8838,11 @@
       <c r="F154" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H154" s="2" t="s">
+      <c r="G154" s="3"/>
+      <c r="H154" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="I154" s="5" t="s">
+      <c r="I154" s="3" t="s">
         <v>616</v>
       </c>
     </row>
@@ -8708,7 +8856,7 @@
       <c r="C155" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D155" s="1">
+      <c r="D155" s="2">
         <v>162.0</v>
       </c>
       <c r="E155" s="1" t="s">
@@ -8717,10 +8865,11 @@
       <c r="F155" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H155" s="2" t="s">
+      <c r="G155" s="3"/>
+      <c r="H155" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="I155" s="5" t="s">
+      <c r="I155" s="3" t="s">
         <v>620</v>
       </c>
     </row>
@@ -8734,7 +8883,7 @@
       <c r="C156" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D156" s="1">
+      <c r="D156" s="2">
         <v>163.0</v>
       </c>
       <c r="E156" s="1" t="s">
@@ -8743,10 +8892,11 @@
       <c r="F156" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H156" s="2" t="s">
+      <c r="G156" s="3"/>
+      <c r="H156" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="I156" s="5" t="s">
+      <c r="I156" s="3" t="s">
         <v>624</v>
       </c>
     </row>
@@ -8760,7 +8910,7 @@
       <c r="C157" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D157" s="1">
+      <c r="D157" s="2">
         <v>164.0</v>
       </c>
       <c r="E157" s="1" t="s">
@@ -8769,10 +8919,11 @@
       <c r="F157" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H157" s="2" t="s">
+      <c r="G157" s="3"/>
+      <c r="H157" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="I157" s="5" t="s">
+      <c r="I157" s="3" t="s">
         <v>628</v>
       </c>
     </row>
@@ -8786,7 +8937,7 @@
       <c r="C158" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D158" s="2">
         <v>165.0</v>
       </c>
       <c r="E158" s="1" t="s">
@@ -8795,10 +8946,11 @@
       <c r="F158" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H158" s="2" t="s">
+      <c r="G158" s="3"/>
+      <c r="H158" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="I158" s="5" t="s">
+      <c r="I158" s="3" t="s">
         <v>632</v>
       </c>
     </row>
@@ -8812,7 +8964,7 @@
       <c r="C159" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D159" s="1">
+      <c r="D159" s="2">
         <v>166.0</v>
       </c>
       <c r="E159" s="1" t="s">
@@ -8821,10 +8973,11 @@
       <c r="F159" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H159" s="2" t="s">
+      <c r="G159" s="3"/>
+      <c r="H159" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="I159" s="5" t="s">
+      <c r="I159" s="3" t="s">
         <v>636</v>
       </c>
     </row>
@@ -8838,7 +8991,7 @@
       <c r="C160" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D160" s="1">
+      <c r="D160" s="2">
         <v>167.0</v>
       </c>
       <c r="E160" s="1" t="s">
@@ -8847,10 +9000,11 @@
       <c r="F160" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H160" s="2" t="s">
+      <c r="G160" s="3"/>
+      <c r="H160" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="I160" s="5" t="s">
+      <c r="I160" s="3" t="s">
         <v>640</v>
       </c>
     </row>
@@ -8864,7 +9018,7 @@
       <c r="C161" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D161" s="1">
+      <c r="D161" s="2">
         <v>168.0</v>
       </c>
       <c r="E161" s="1" t="s">
@@ -8873,10 +9027,11 @@
       <c r="F161" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H161" s="2" t="s">
+      <c r="G161" s="3"/>
+      <c r="H161" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="I161" s="5" t="s">
+      <c r="I161" s="3" t="s">
         <v>644</v>
       </c>
     </row>
@@ -8890,7 +9045,7 @@
       <c r="C162" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D162" s="1">
+      <c r="D162" s="2">
         <v>169.0</v>
       </c>
       <c r="E162" s="1" t="s">
@@ -8899,10 +9054,11 @@
       <c r="F162" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H162" s="2" t="s">
+      <c r="G162" s="3"/>
+      <c r="H162" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="I162" s="5" t="s">
+      <c r="I162" s="3" t="s">
         <v>648</v>
       </c>
     </row>
@@ -8916,7 +9072,7 @@
       <c r="C163" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D163" s="1">
+      <c r="D163" s="2">
         <v>170.0</v>
       </c>
       <c r="E163" s="1" t="s">
@@ -8925,10 +9081,11 @@
       <c r="F163" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H163" s="2" t="s">
+      <c r="G163" s="3"/>
+      <c r="H163" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="I163" s="5" t="s">
+      <c r="I163" s="3" t="s">
         <v>652</v>
       </c>
     </row>
@@ -8942,7 +9099,7 @@
       <c r="C164" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D164" s="1">
+      <c r="D164" s="2">
         <v>171.0</v>
       </c>
       <c r="E164" s="1" t="s">
@@ -8951,10 +9108,11 @@
       <c r="F164" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H164" s="2" t="s">
+      <c r="G164" s="3"/>
+      <c r="H164" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="I164" s="5" t="s">
+      <c r="I164" s="3" t="s">
         <v>656</v>
       </c>
     </row>
@@ -8968,7 +9126,7 @@
       <c r="C165" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D165" s="1">
+      <c r="D165" s="2">
         <v>172.0</v>
       </c>
       <c r="E165" s="1" t="s">
@@ -8977,10 +9135,11 @@
       <c r="F165" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H165" s="2" t="s">
+      <c r="G165" s="3"/>
+      <c r="H165" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="I165" s="5" t="s">
+      <c r="I165" s="3" t="s">
         <v>660</v>
       </c>
     </row>
@@ -8994,7 +9153,7 @@
       <c r="C166" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D166" s="1">
+      <c r="D166" s="2">
         <v>173.0</v>
       </c>
       <c r="E166" s="1" t="s">
@@ -9003,10 +9162,11 @@
       <c r="F166" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H166" s="2" t="s">
+      <c r="G166" s="3"/>
+      <c r="H166" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="I166" s="5" t="s">
+      <c r="I166" s="3" t="s">
         <v>664</v>
       </c>
     </row>
@@ -9020,7 +9180,7 @@
       <c r="C167" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D167" s="1">
+      <c r="D167" s="2">
         <v>174.0</v>
       </c>
       <c r="E167" s="1" t="s">
@@ -9029,10 +9189,11 @@
       <c r="F167" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H167" s="2" t="s">
+      <c r="G167" s="3"/>
+      <c r="H167" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="I167" s="5" t="s">
+      <c r="I167" s="3" t="s">
         <v>668</v>
       </c>
     </row>
@@ -9046,7 +9207,7 @@
       <c r="C168" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D168" s="1">
+      <c r="D168" s="2">
         <v>175.0</v>
       </c>
       <c r="E168" s="1" t="s">
@@ -9055,10 +9216,11 @@
       <c r="F168" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H168" s="2" t="s">
+      <c r="G168" s="3"/>
+      <c r="H168" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="I168" s="5" t="s">
+      <c r="I168" s="3" t="s">
         <v>672</v>
       </c>
     </row>
@@ -9072,7 +9234,7 @@
       <c r="C169" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D169" s="1">
+      <c r="D169" s="2">
         <v>176.0</v>
       </c>
       <c r="E169" s="1" t="s">
@@ -9081,10 +9243,11 @@
       <c r="F169" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H169" s="2" t="s">
+      <c r="G169" s="3"/>
+      <c r="H169" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="I169" s="5" t="s">
+      <c r="I169" s="3" t="s">
         <v>676</v>
       </c>
     </row>
@@ -9098,7 +9261,7 @@
       <c r="C170" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D170" s="1">
+      <c r="D170" s="2">
         <v>177.0</v>
       </c>
       <c r="E170" s="1" t="s">
@@ -9107,10 +9270,11 @@
       <c r="F170" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H170" s="2" t="s">
+      <c r="G170" s="3"/>
+      <c r="H170" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="I170" s="5" t="s">
+      <c r="I170" s="3" t="s">
         <v>680</v>
       </c>
     </row>
@@ -9124,7 +9288,7 @@
       <c r="C171" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D171" s="1">
+      <c r="D171" s="2">
         <v>178.0</v>
       </c>
       <c r="E171" s="1" t="s">
@@ -9133,10 +9297,11 @@
       <c r="F171" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H171" s="2" t="s">
+      <c r="G171" s="3"/>
+      <c r="H171" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="I171" s="5" t="s">
+      <c r="I171" s="3" t="s">
         <v>684</v>
       </c>
     </row>
@@ -9150,7 +9315,7 @@
       <c r="C172" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D172" s="1">
+      <c r="D172" s="2">
         <v>179.0</v>
       </c>
       <c r="E172" s="1" t="s">
@@ -9159,10 +9324,11 @@
       <c r="F172" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H172" s="2" t="s">
+      <c r="G172" s="3"/>
+      <c r="H172" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="I172" s="5" t="s">
+      <c r="I172" s="3" t="s">
         <v>688</v>
       </c>
     </row>
@@ -9176,7 +9342,7 @@
       <c r="C173" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D173" s="1">
+      <c r="D173" s="2">
         <v>180.0</v>
       </c>
       <c r="E173" s="1" t="s">
@@ -9185,10 +9351,11 @@
       <c r="F173" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H173" s="2" t="s">
+      <c r="G173" s="3"/>
+      <c r="H173" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="I173" s="5" t="s">
+      <c r="I173" s="3" t="s">
         <v>692</v>
       </c>
     </row>
@@ -9202,7 +9369,7 @@
       <c r="C174" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D174" s="1">
+      <c r="D174" s="2">
         <v>181.0</v>
       </c>
       <c r="E174" s="1" t="s">
@@ -9211,10 +9378,11 @@
       <c r="F174" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H174" s="2" t="s">
+      <c r="G174" s="3"/>
+      <c r="H174" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="I174" s="5" t="s">
+      <c r="I174" s="3" t="s">
         <v>696</v>
       </c>
     </row>
@@ -9228,7 +9396,7 @@
       <c r="C175" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D175" s="1">
+      <c r="D175" s="2">
         <v>182.0</v>
       </c>
       <c r="E175" s="1" t="s">
@@ -9237,10 +9405,11 @@
       <c r="F175" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H175" s="2" t="s">
+      <c r="G175" s="3"/>
+      <c r="H175" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="I175" s="5" t="s">
+      <c r="I175" s="3" t="s">
         <v>700</v>
       </c>
     </row>
@@ -9254,7 +9423,7 @@
       <c r="C176" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D176" s="1">
+      <c r="D176" s="2">
         <v>183.0</v>
       </c>
       <c r="E176" s="1" t="s">
@@ -9263,10 +9432,11 @@
       <c r="F176" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H176" s="2" t="s">
+      <c r="G176" s="3"/>
+      <c r="H176" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="I176" s="5" t="s">
+      <c r="I176" s="3" t="s">
         <v>704</v>
       </c>
     </row>
@@ -9280,7 +9450,7 @@
       <c r="C177" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D177" s="1">
+      <c r="D177" s="2">
         <v>184.0</v>
       </c>
       <c r="E177" s="1" t="s">
@@ -9289,10 +9459,11 @@
       <c r="F177" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H177" s="2" t="s">
+      <c r="G177" s="3"/>
+      <c r="H177" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="I177" s="5" t="s">
+      <c r="I177" s="3" t="s">
         <v>708</v>
       </c>
     </row>
@@ -9306,7 +9477,7 @@
       <c r="C178" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D178" s="1">
+      <c r="D178" s="2">
         <v>185.0</v>
       </c>
       <c r="E178" s="1" t="s">
@@ -9315,10 +9486,11 @@
       <c r="F178" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H178" s="2" t="s">
+      <c r="G178" s="3"/>
+      <c r="H178" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="I178" s="5" t="s">
+      <c r="I178" s="3" t="s">
         <v>712</v>
       </c>
     </row>
@@ -9332,7 +9504,7 @@
       <c r="C179" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D179" s="1">
+      <c r="D179" s="2">
         <v>186.0</v>
       </c>
       <c r="E179" s="1" t="s">
@@ -9341,10 +9513,11 @@
       <c r="F179" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H179" s="2" t="s">
+      <c r="G179" s="3"/>
+      <c r="H179" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="I179" s="5" t="s">
+      <c r="I179" s="3" t="s">
         <v>716</v>
       </c>
     </row>
@@ -9358,7 +9531,7 @@
       <c r="C180" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D180" s="1">
+      <c r="D180" s="2">
         <v>187.0</v>
       </c>
       <c r="E180" s="1" t="s">
@@ -9367,10 +9540,11 @@
       <c r="F180" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H180" s="2" t="s">
+      <c r="G180" s="3"/>
+      <c r="H180" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="I180" s="5" t="s">
+      <c r="I180" s="3" t="s">
         <v>720</v>
       </c>
     </row>
@@ -9384,7 +9558,7 @@
       <c r="C181" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D181" s="1">
+      <c r="D181" s="2">
         <v>188.0</v>
       </c>
       <c r="E181" s="1" t="s">
@@ -9393,10 +9567,11 @@
       <c r="F181" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H181" s="2" t="s">
+      <c r="G181" s="3"/>
+      <c r="H181" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="I181" s="5" t="s">
+      <c r="I181" s="3" t="s">
         <v>724</v>
       </c>
     </row>
@@ -9410,7 +9585,7 @@
       <c r="C182" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D182" s="1">
+      <c r="D182" s="2">
         <v>189.0</v>
       </c>
       <c r="E182" s="1" t="s">
@@ -9419,10 +9594,11 @@
       <c r="F182" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H182" s="2" t="s">
+      <c r="G182" s="3"/>
+      <c r="H182" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="I182" s="5" t="s">
+      <c r="I182" s="3" t="s">
         <v>728</v>
       </c>
     </row>
@@ -9436,7 +9612,7 @@
       <c r="C183" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D183" s="1">
+      <c r="D183" s="2">
         <v>190.0</v>
       </c>
       <c r="E183" s="1" t="s">
@@ -9445,10 +9621,11 @@
       <c r="F183" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H183" s="2" t="s">
+      <c r="G183" s="3"/>
+      <c r="H183" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="I183" s="5" t="s">
+      <c r="I183" s="3" t="s">
         <v>732</v>
       </c>
     </row>
@@ -9462,7 +9639,7 @@
       <c r="C184" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D184" s="1">
+      <c r="D184" s="2">
         <v>191.0</v>
       </c>
       <c r="E184" s="1" t="s">
@@ -9471,10 +9648,11 @@
       <c r="F184" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H184" s="2" t="s">
+      <c r="G184" s="3"/>
+      <c r="H184" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="I184" s="5" t="s">
+      <c r="I184" s="3" t="s">
         <v>736</v>
       </c>
     </row>
@@ -9488,7 +9666,7 @@
       <c r="C185" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D185" s="1">
+      <c r="D185" s="2">
         <v>192.0</v>
       </c>
       <c r="E185" s="1" t="s">
@@ -9497,10 +9675,11 @@
       <c r="F185" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H185" s="2" t="s">
+      <c r="G185" s="3"/>
+      <c r="H185" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="I185" s="5" t="s">
+      <c r="I185" s="3" t="s">
         <v>740</v>
       </c>
     </row>
@@ -9514,7 +9693,7 @@
       <c r="C186" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D186" s="1">
+      <c r="D186" s="2">
         <v>193.0</v>
       </c>
       <c r="E186" s="1" t="s">
@@ -9523,10 +9702,11 @@
       <c r="F186" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H186" s="2" t="s">
+      <c r="G186" s="3"/>
+      <c r="H186" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="I186" s="5" t="s">
+      <c r="I186" s="3" t="s">
         <v>744</v>
       </c>
     </row>
@@ -9540,7 +9720,7 @@
       <c r="C187" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D187" s="1">
+      <c r="D187" s="2">
         <v>194.0</v>
       </c>
       <c r="E187" s="1" t="s">
@@ -9549,10 +9729,11 @@
       <c r="F187" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H187" s="2" t="s">
+      <c r="G187" s="3"/>
+      <c r="H187" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="I187" s="5" t="s">
+      <c r="I187" s="3" t="s">
         <v>748</v>
       </c>
     </row>
@@ -9566,7 +9747,7 @@
       <c r="C188" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D188" s="1">
+      <c r="D188" s="2">
         <v>195.0</v>
       </c>
       <c r="E188" s="1" t="s">
@@ -9575,10 +9756,11 @@
       <c r="F188" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H188" s="2" t="s">
+      <c r="G188" s="3"/>
+      <c r="H188" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="I188" s="5" t="s">
+      <c r="I188" s="3" t="s">
         <v>752</v>
       </c>
     </row>
@@ -9592,7 +9774,7 @@
       <c r="C189" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D189" s="1">
+      <c r="D189" s="2">
         <v>196.0</v>
       </c>
       <c r="E189" s="1" t="s">
@@ -9601,10 +9783,11 @@
       <c r="F189" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H189" s="2" t="s">
+      <c r="G189" s="3"/>
+      <c r="H189" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="I189" s="5" t="s">
+      <c r="I189" s="3" t="s">
         <v>756</v>
       </c>
     </row>
@@ -9618,7 +9801,7 @@
       <c r="C190" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D190" s="1">
+      <c r="D190" s="2">
         <v>197.0</v>
       </c>
       <c r="E190" s="1" t="s">
@@ -9627,10 +9810,11 @@
       <c r="F190" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H190" s="2" t="s">
+      <c r="G190" s="3"/>
+      <c r="H190" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="I190" s="5" t="s">
+      <c r="I190" s="3" t="s">
         <v>760</v>
       </c>
     </row>
@@ -9644,7 +9828,7 @@
       <c r="C191" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D191" s="1">
+      <c r="D191" s="2">
         <v>198.0</v>
       </c>
       <c r="E191" s="1" t="s">
@@ -9653,10 +9837,11 @@
       <c r="F191" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H191" s="2" t="s">
+      <c r="G191" s="3"/>
+      <c r="H191" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="I191" s="5" t="s">
+      <c r="I191" s="3" t="s">
         <v>764</v>
       </c>
     </row>
@@ -9670,7 +9855,7 @@
       <c r="C192" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D192" s="1">
+      <c r="D192" s="2">
         <v>199.0</v>
       </c>
       <c r="E192" s="1" t="s">
@@ -9679,10 +9864,11 @@
       <c r="F192" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H192" s="2" t="s">
+      <c r="G192" s="3"/>
+      <c r="H192" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="I192" s="5" t="s">
+      <c r="I192" s="3" t="s">
         <v>768</v>
       </c>
     </row>
@@ -9696,7 +9882,7 @@
       <c r="C193" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D193" s="1">
+      <c r="D193" s="2">
         <v>200.0</v>
       </c>
       <c r="E193" s="1" t="s">
@@ -9705,10 +9891,11 @@
       <c r="F193" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H193" s="2" t="s">
+      <c r="G193" s="3"/>
+      <c r="H193" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="I193" s="5" t="s">
+      <c r="I193" s="3" t="s">
         <v>772</v>
       </c>
     </row>
@@ -9722,7 +9909,7 @@
       <c r="C194" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D194" s="1">
+      <c r="D194" s="2">
         <v>201.0</v>
       </c>
       <c r="E194" s="1" t="s">
@@ -9731,10 +9918,11 @@
       <c r="F194" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H194" s="2" t="s">
+      <c r="G194" s="3"/>
+      <c r="H194" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="I194" s="5" t="s">
+      <c r="I194" s="3" t="s">
         <v>776</v>
       </c>
     </row>
@@ -9748,7 +9936,7 @@
       <c r="C195" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D195" s="1">
+      <c r="D195" s="2">
         <v>202.0</v>
       </c>
       <c r="E195" s="1" t="s">
@@ -9757,10 +9945,11 @@
       <c r="F195" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H195" s="2" t="s">
+      <c r="G195" s="3"/>
+      <c r="H195" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="I195" s="5" t="s">
+      <c r="I195" s="3" t="s">
         <v>780</v>
       </c>
     </row>
@@ -9774,7 +9963,7 @@
       <c r="C196" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D196" s="1">
+      <c r="D196" s="2">
         <v>203.0</v>
       </c>
       <c r="E196" s="1" t="s">
@@ -9783,10 +9972,11 @@
       <c r="F196" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H196" s="2" t="s">
+      <c r="G196" s="3"/>
+      <c r="H196" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="I196" s="5" t="s">
+      <c r="I196" s="3" t="s">
         <v>784</v>
       </c>
     </row>
@@ -9800,7 +9990,7 @@
       <c r="C197" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D197" s="1">
+      <c r="D197" s="2">
         <v>204.0</v>
       </c>
       <c r="E197" s="1" t="s">
@@ -9809,10 +9999,11 @@
       <c r="F197" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H197" s="2" t="s">
+      <c r="G197" s="3"/>
+      <c r="H197" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="I197" s="5" t="s">
+      <c r="I197" s="3" t="s">
         <v>788</v>
       </c>
     </row>
@@ -9826,7 +10017,7 @@
       <c r="C198" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D198" s="1">
+      <c r="D198" s="2">
         <v>205.0</v>
       </c>
       <c r="E198" s="1" t="s">
@@ -9835,10 +10026,11 @@
       <c r="F198" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H198" s="2" t="s">
+      <c r="G198" s="3"/>
+      <c r="H198" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="I198" s="5" t="s">
+      <c r="I198" s="3" t="s">
         <v>792</v>
       </c>
     </row>
@@ -9852,7 +10044,7 @@
       <c r="C199" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D199" s="1">
+      <c r="D199" s="2">
         <v>206.0</v>
       </c>
       <c r="E199" s="1" t="s">
@@ -9861,10 +10053,11 @@
       <c r="F199" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H199" s="2" t="s">
+      <c r="G199" s="3"/>
+      <c r="H199" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="I199" s="5" t="s">
+      <c r="I199" s="3" t="s">
         <v>796</v>
       </c>
     </row>
@@ -9878,7 +10071,7 @@
       <c r="C200" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D200" s="1">
+      <c r="D200" s="2">
         <v>207.0</v>
       </c>
       <c r="E200" s="1" t="s">
@@ -9887,10 +10080,11 @@
       <c r="F200" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H200" s="2" t="s">
+      <c r="G200" s="3"/>
+      <c r="H200" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="I200" s="5" t="s">
+      <c r="I200" s="3" t="s">
         <v>800</v>
       </c>
     </row>
@@ -9904,7 +10098,7 @@
       <c r="C201" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D201" s="1">
+      <c r="D201" s="2">
         <v>208.0</v>
       </c>
       <c r="E201" s="1" t="s">
@@ -9913,10 +10107,11 @@
       <c r="F201" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H201" s="2" t="s">
+      <c r="G201" s="3"/>
+      <c r="H201" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="I201" s="5" t="s">
+      <c r="I201" s="3" t="s">
         <v>804</v>
       </c>
     </row>
@@ -9930,7 +10125,7 @@
       <c r="C202" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D202" s="1">
+      <c r="D202" s="2">
         <v>209.0</v>
       </c>
       <c r="E202" s="1" t="s">
@@ -9939,10 +10134,11 @@
       <c r="F202" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H202" s="2" t="s">
+      <c r="G202" s="3"/>
+      <c r="H202" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="I202" s="5" t="s">
+      <c r="I202" s="3" t="s">
         <v>808</v>
       </c>
     </row>
@@ -9956,7 +10152,7 @@
       <c r="C203" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D203" s="1">
+      <c r="D203" s="2">
         <v>210.0</v>
       </c>
       <c r="E203" s="1" t="s">
@@ -9965,10 +10161,11 @@
       <c r="F203" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H203" s="2" t="s">
+      <c r="G203" s="3"/>
+      <c r="H203" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="I203" s="5" t="s">
+      <c r="I203" s="3" t="s">
         <v>812</v>
       </c>
     </row>
@@ -9982,7 +10179,7 @@
       <c r="C204" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D204" s="1">
+      <c r="D204" s="2">
         <v>211.0</v>
       </c>
       <c r="E204" s="1" t="s">
@@ -9991,10 +10188,11 @@
       <c r="F204" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H204" s="2" t="s">
+      <c r="G204" s="3"/>
+      <c r="H204" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="I204" s="5" t="s">
+      <c r="I204" s="3" t="s">
         <v>816</v>
       </c>
     </row>
@@ -10008,7 +10206,7 @@
       <c r="C205" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D205" s="1">
+      <c r="D205" s="2">
         <v>212.0</v>
       </c>
       <c r="E205" s="1" t="s">
@@ -10017,10 +10215,11 @@
       <c r="F205" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H205" s="2" t="s">
+      <c r="G205" s="3"/>
+      <c r="H205" s="4" t="s">
         <v>819</v>
       </c>
-      <c r="I205" s="5" t="s">
+      <c r="I205" s="3" t="s">
         <v>820</v>
       </c>
     </row>
@@ -10034,7 +10233,7 @@
       <c r="C206" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D206" s="1">
+      <c r="D206" s="2">
         <v>213.0</v>
       </c>
       <c r="E206" s="1" t="s">
@@ -10043,10 +10242,11 @@
       <c r="F206" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H206" s="2" t="s">
+      <c r="G206" s="3"/>
+      <c r="H206" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="I206" s="5" t="s">
+      <c r="I206" s="3" t="s">
         <v>824</v>
       </c>
     </row>
@@ -10060,7 +10260,7 @@
       <c r="C207" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D207" s="1">
+      <c r="D207" s="2">
         <v>214.0</v>
       </c>
       <c r="E207" s="1" t="s">
@@ -10069,10 +10269,11 @@
       <c r="F207" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H207" s="2" t="s">
+      <c r="G207" s="3"/>
+      <c r="H207" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="I207" s="5" t="s">
+      <c r="I207" s="3" t="s">
         <v>828</v>
       </c>
     </row>
@@ -10086,7 +10287,7 @@
       <c r="C208" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D208" s="1">
+      <c r="D208" s="2">
         <v>215.0</v>
       </c>
       <c r="E208" s="1" t="s">
@@ -10095,10 +10296,11 @@
       <c r="F208" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H208" s="2" t="s">
+      <c r="G208" s="3"/>
+      <c r="H208" s="4" t="s">
         <v>831</v>
       </c>
-      <c r="I208" s="5" t="s">
+      <c r="I208" s="3" t="s">
         <v>832</v>
       </c>
     </row>
@@ -10112,7 +10314,7 @@
       <c r="C209" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D209" s="1">
+      <c r="D209" s="2">
         <v>216.0</v>
       </c>
       <c r="E209" s="1" t="s">
@@ -10121,10 +10323,11 @@
       <c r="F209" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H209" s="2" t="s">
+      <c r="G209" s="3"/>
+      <c r="H209" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="I209" s="5" t="s">
+      <c r="I209" s="3" t="s">
         <v>836</v>
       </c>
     </row>
@@ -10138,7 +10341,7 @@
       <c r="C210" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D210" s="1">
+      <c r="D210" s="2">
         <v>217.0</v>
       </c>
       <c r="E210" s="1" t="s">
@@ -10147,10 +10350,11 @@
       <c r="F210" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H210" s="2" t="s">
+      <c r="G210" s="3"/>
+      <c r="H210" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="I210" s="5" t="s">
+      <c r="I210" s="3" t="s">
         <v>840</v>
       </c>
     </row>
@@ -10164,7 +10368,7 @@
       <c r="C211" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D211" s="1">
+      <c r="D211" s="2">
         <v>218.0</v>
       </c>
       <c r="E211" s="1" t="s">
@@ -10173,10 +10377,11 @@
       <c r="F211" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H211" s="2" t="s">
+      <c r="G211" s="3"/>
+      <c r="H211" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="I211" s="5" t="s">
+      <c r="I211" s="3" t="s">
         <v>844</v>
       </c>
     </row>
@@ -10190,7 +10395,7 @@
       <c r="C212" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D212" s="1">
+      <c r="D212" s="2">
         <v>219.0</v>
       </c>
       <c r="E212" s="1" t="s">
@@ -10199,10 +10404,11 @@
       <c r="F212" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H212" s="2" t="s">
+      <c r="G212" s="3"/>
+      <c r="H212" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="I212" s="5" t="s">
+      <c r="I212" s="3" t="s">
         <v>848</v>
       </c>
     </row>
@@ -10216,7 +10422,7 @@
       <c r="C213" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D213" s="1">
+      <c r="D213" s="2">
         <v>220.0</v>
       </c>
       <c r="E213" s="1" t="s">
@@ -10225,10 +10431,11 @@
       <c r="F213" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H213" s="2" t="s">
+      <c r="G213" s="3"/>
+      <c r="H213" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="I213" s="5" t="s">
+      <c r="I213" s="3" t="s">
         <v>852</v>
       </c>
     </row>
@@ -10242,7 +10449,7 @@
       <c r="C214" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D214" s="1">
+      <c r="D214" s="2">
         <v>221.0</v>
       </c>
       <c r="E214" s="1" t="s">
@@ -10251,10 +10458,11 @@
       <c r="F214" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H214" s="2" t="s">
+      <c r="G214" s="3"/>
+      <c r="H214" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="I214" s="5" t="s">
+      <c r="I214" s="3" t="s">
         <v>856</v>
       </c>
     </row>
@@ -10268,7 +10476,7 @@
       <c r="C215" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D215" s="1">
+      <c r="D215" s="2">
         <v>222.0</v>
       </c>
       <c r="E215" s="1" t="s">
@@ -10277,10 +10485,11 @@
       <c r="F215" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H215" s="2" t="s">
+      <c r="G215" s="3"/>
+      <c r="H215" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="I215" s="5" t="s">
+      <c r="I215" s="3" t="s">
         <v>860</v>
       </c>
     </row>
@@ -10294,7 +10503,7 @@
       <c r="C216" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D216" s="1">
+      <c r="D216" s="2">
         <v>223.0</v>
       </c>
       <c r="E216" s="1" t="s">
@@ -10303,10 +10512,11 @@
       <c r="F216" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H216" s="2" t="s">
+      <c r="G216" s="3"/>
+      <c r="H216" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="I216" s="5" t="s">
+      <c r="I216" s="3" t="s">
         <v>864</v>
       </c>
     </row>
@@ -10320,7 +10530,7 @@
       <c r="C217" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D217" s="1">
+      <c r="D217" s="2">
         <v>224.0</v>
       </c>
       <c r="E217" s="1" t="s">
@@ -10329,10 +10539,11 @@
       <c r="F217" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H217" s="2" t="s">
+      <c r="G217" s="3"/>
+      <c r="H217" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="I217" s="5" t="s">
+      <c r="I217" s="3" t="s">
         <v>868</v>
       </c>
     </row>
@@ -10346,7 +10557,7 @@
       <c r="C218" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D218" s="1">
+      <c r="D218" s="2">
         <v>225.0</v>
       </c>
       <c r="E218" s="1" t="s">
@@ -10355,10 +10566,11 @@
       <c r="F218" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H218" s="2" t="s">
+      <c r="G218" s="3"/>
+      <c r="H218" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="I218" s="5" t="s">
+      <c r="I218" s="3" t="s">
         <v>872</v>
       </c>
     </row>
@@ -10372,7 +10584,7 @@
       <c r="C219" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D219" s="1">
+      <c r="D219" s="2">
         <v>226.0</v>
       </c>
       <c r="E219" s="1" t="s">
@@ -10381,10 +10593,11 @@
       <c r="F219" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H219" s="2" t="s">
+      <c r="G219" s="3"/>
+      <c r="H219" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="I219" s="5" t="s">
+      <c r="I219" s="3" t="s">
         <v>876</v>
       </c>
     </row>
@@ -10398,7 +10611,7 @@
       <c r="C220" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D220" s="1">
+      <c r="D220" s="2">
         <v>227.0</v>
       </c>
       <c r="E220" s="1" t="s">
@@ -10407,10 +10620,11 @@
       <c r="F220" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H220" s="2" t="s">
+      <c r="G220" s="3"/>
+      <c r="H220" s="4" t="s">
         <v>879</v>
       </c>
-      <c r="I220" s="5" t="s">
+      <c r="I220" s="3" t="s">
         <v>880</v>
       </c>
     </row>
@@ -10424,7 +10638,7 @@
       <c r="C221" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D221" s="1">
+      <c r="D221" s="2">
         <v>228.0</v>
       </c>
       <c r="E221" s="1" t="s">
@@ -10433,10 +10647,11 @@
       <c r="F221" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H221" s="2" t="s">
+      <c r="G221" s="3"/>
+      <c r="H221" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="I221" s="5" t="s">
+      <c r="I221" s="3" t="s">
         <v>884</v>
       </c>
     </row>
@@ -10450,7 +10665,7 @@
       <c r="C222" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D222" s="1">
+      <c r="D222" s="2">
         <v>229.0</v>
       </c>
       <c r="E222" s="1" t="s">
@@ -10459,10 +10674,11 @@
       <c r="F222" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H222" s="2" t="s">
+      <c r="G222" s="3"/>
+      <c r="H222" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="I222" s="5" t="s">
+      <c r="I222" s="3" t="s">
         <v>888</v>
       </c>
     </row>
@@ -10476,7 +10692,7 @@
       <c r="C223" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D223" s="1">
+      <c r="D223" s="2">
         <v>230.0</v>
       </c>
       <c r="E223" s="1" t="s">
@@ -10485,10 +10701,11 @@
       <c r="F223" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H223" s="2" t="s">
+      <c r="G223" s="3"/>
+      <c r="H223" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="I223" s="5" t="s">
+      <c r="I223" s="3" t="s">
         <v>892</v>
       </c>
     </row>
@@ -10502,7 +10719,7 @@
       <c r="C224" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D224" s="1">
+      <c r="D224" s="2">
         <v>231.0</v>
       </c>
       <c r="E224" s="1" t="s">
@@ -10511,10 +10728,11 @@
       <c r="F224" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H224" s="2" t="s">
+      <c r="G224" s="3"/>
+      <c r="H224" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="I224" s="5" t="s">
+      <c r="I224" s="3" t="s">
         <v>896</v>
       </c>
     </row>
@@ -10528,7 +10746,7 @@
       <c r="C225" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D225" s="1">
+      <c r="D225" s="2">
         <v>232.0</v>
       </c>
       <c r="E225" s="1" t="s">
@@ -10537,10 +10755,11 @@
       <c r="F225" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H225" s="2" t="s">
+      <c r="G225" s="3"/>
+      <c r="H225" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="I225" s="5" t="s">
+      <c r="I225" s="3" t="s">
         <v>900</v>
       </c>
     </row>
@@ -10554,7 +10773,7 @@
       <c r="C226" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D226" s="1">
+      <c r="D226" s="2">
         <v>233.0</v>
       </c>
       <c r="E226" s="1" t="s">
@@ -10563,10 +10782,11 @@
       <c r="F226" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H226" s="2" t="s">
+      <c r="G226" s="3"/>
+      <c r="H226" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="I226" s="5" t="s">
+      <c r="I226" s="3" t="s">
         <v>904</v>
       </c>
     </row>
@@ -10580,7 +10800,7 @@
       <c r="C227" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D227" s="1">
+      <c r="D227" s="2">
         <v>234.0</v>
       </c>
       <c r="E227" s="1" t="s">
@@ -10589,10 +10809,11 @@
       <c r="F227" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H227" s="2" t="s">
+      <c r="G227" s="3"/>
+      <c r="H227" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="I227" s="5" t="s">
+      <c r="I227" s="3" t="s">
         <v>908</v>
       </c>
     </row>
@@ -10606,7 +10827,7 @@
       <c r="C228" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D228" s="1">
+      <c r="D228" s="2">
         <v>235.0</v>
       </c>
       <c r="E228" s="1" t="s">
@@ -10615,10 +10836,11 @@
       <c r="F228" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H228" s="2" t="s">
+      <c r="G228" s="3"/>
+      <c r="H228" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="I228" s="5" t="s">
+      <c r="I228" s="3" t="s">
         <v>912</v>
       </c>
     </row>
@@ -10632,7 +10854,7 @@
       <c r="C229" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D229" s="1">
+      <c r="D229" s="2">
         <v>236.0</v>
       </c>
       <c r="E229" s="1" t="s">
@@ -10641,10 +10863,11 @@
       <c r="F229" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H229" s="2" t="s">
+      <c r="G229" s="3"/>
+      <c r="H229" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="I229" s="5" t="s">
+      <c r="I229" s="3" t="s">
         <v>916</v>
       </c>
     </row>
@@ -10658,7 +10881,7 @@
       <c r="C230" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D230" s="1">
+      <c r="D230" s="2">
         <v>237.0</v>
       </c>
       <c r="E230" s="1" t="s">
@@ -10667,10 +10890,11 @@
       <c r="F230" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H230" s="2" t="s">
+      <c r="G230" s="3"/>
+      <c r="H230" s="4" t="s">
         <v>919</v>
       </c>
-      <c r="I230" s="5" t="s">
+      <c r="I230" s="3" t="s">
         <v>920</v>
       </c>
     </row>
@@ -10684,7 +10908,7 @@
       <c r="C231" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D231" s="1">
+      <c r="D231" s="2">
         <v>238.0</v>
       </c>
       <c r="E231" s="1" t="s">
@@ -10693,10 +10917,11 @@
       <c r="F231" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H231" s="2" t="s">
+      <c r="G231" s="3"/>
+      <c r="H231" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="I231" s="5" t="s">
+      <c r="I231" s="3" t="s">
         <v>924</v>
       </c>
     </row>
@@ -10710,7 +10935,7 @@
       <c r="C232" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D232" s="1">
+      <c r="D232" s="2">
         <v>239.0</v>
       </c>
       <c r="E232" s="1" t="s">
@@ -10719,10 +10944,11 @@
       <c r="F232" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H232" s="2" t="s">
+      <c r="G232" s="3"/>
+      <c r="H232" s="4" t="s">
         <v>927</v>
       </c>
-      <c r="I232" s="5" t="s">
+      <c r="I232" s="3" t="s">
         <v>928</v>
       </c>
     </row>
@@ -10736,7 +10962,7 @@
       <c r="C233" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D233" s="1">
+      <c r="D233" s="2">
         <v>240.0</v>
       </c>
       <c r="E233" s="1" t="s">
@@ -10745,10 +10971,11 @@
       <c r="F233" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H233" s="2" t="s">
+      <c r="G233" s="3"/>
+      <c r="H233" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="I233" s="5" t="s">
+      <c r="I233" s="3" t="s">
         <v>932</v>
       </c>
     </row>
@@ -10762,7 +10989,7 @@
       <c r="C234" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D234" s="1">
+      <c r="D234" s="2">
         <v>241.0</v>
       </c>
       <c r="E234" s="1" t="s">
@@ -10771,10 +10998,11 @@
       <c r="F234" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H234" s="2" t="s">
+      <c r="G234" s="3"/>
+      <c r="H234" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="I234" s="5" t="s">
+      <c r="I234" s="3" t="s">
         <v>936</v>
       </c>
     </row>
@@ -10788,7 +11016,7 @@
       <c r="C235" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D235" s="1">
+      <c r="D235" s="2">
         <v>242.0</v>
       </c>
       <c r="E235" s="1" t="s">
@@ -10797,10 +11025,11 @@
       <c r="F235" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H235" s="2" t="s">
+      <c r="G235" s="3"/>
+      <c r="H235" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="I235" s="5" t="s">
+      <c r="I235" s="3" t="s">
         <v>940</v>
       </c>
     </row>
@@ -10814,7 +11043,7 @@
       <c r="C236" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D236" s="1">
+      <c r="D236" s="2">
         <v>243.0</v>
       </c>
       <c r="E236" s="1" t="s">
@@ -10823,10 +11052,11 @@
       <c r="F236" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H236" s="2" t="s">
+      <c r="G236" s="3"/>
+      <c r="H236" s="4" t="s">
         <v>943</v>
       </c>
-      <c r="I236" s="5" t="s">
+      <c r="I236" s="3" t="s">
         <v>944</v>
       </c>
     </row>
@@ -10840,7 +11070,7 @@
       <c r="C237" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D237" s="1">
+      <c r="D237" s="2">
         <v>244.0</v>
       </c>
       <c r="E237" s="1" t="s">
@@ -10849,10 +11079,11 @@
       <c r="F237" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H237" s="2" t="s">
+      <c r="G237" s="3"/>
+      <c r="H237" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="I237" s="5" t="s">
+      <c r="I237" s="3" t="s">
         <v>948</v>
       </c>
     </row>
@@ -10866,7 +11097,7 @@
       <c r="C238" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D238" s="1">
+      <c r="D238" s="2">
         <v>245.0</v>
       </c>
       <c r="E238" s="1" t="s">
@@ -10875,10 +11106,11 @@
       <c r="F238" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H238" s="2" t="s">
+      <c r="G238" s="3"/>
+      <c r="H238" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="I238" s="5" t="s">
+      <c r="I238" s="3" t="s">
         <v>952</v>
       </c>
     </row>
@@ -10892,7 +11124,7 @@
       <c r="C239" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D239" s="1">
+      <c r="D239" s="2">
         <v>246.0</v>
       </c>
       <c r="E239" s="1" t="s">
@@ -10901,10 +11133,11 @@
       <c r="F239" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H239" s="2" t="s">
+      <c r="G239" s="3"/>
+      <c r="H239" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="I239" s="5" t="s">
+      <c r="I239" s="3" t="s">
         <v>956</v>
       </c>
     </row>
@@ -10918,7 +11151,7 @@
       <c r="C240" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D240" s="1">
+      <c r="D240" s="2">
         <v>247.0</v>
       </c>
       <c r="E240" s="1" t="s">
@@ -10927,10 +11160,11 @@
       <c r="F240" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H240" s="2" t="s">
+      <c r="G240" s="3"/>
+      <c r="H240" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="I240" s="5" t="s">
+      <c r="I240" s="3" t="s">
         <v>960</v>
       </c>
     </row>
@@ -10944,7 +11178,7 @@
       <c r="C241" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D241" s="1">
+      <c r="D241" s="2">
         <v>248.0</v>
       </c>
       <c r="E241" s="1" t="s">
@@ -10953,10 +11187,11 @@
       <c r="F241" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H241" s="2" t="s">
+      <c r="G241" s="3"/>
+      <c r="H241" s="4" t="s">
         <v>963</v>
       </c>
-      <c r="I241" s="5" t="s">
+      <c r="I241" s="3" t="s">
         <v>964</v>
       </c>
     </row>
@@ -10970,7 +11205,7 @@
       <c r="C242" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D242" s="1">
+      <c r="D242" s="2">
         <v>249.0</v>
       </c>
       <c r="E242" s="1" t="s">
@@ -10979,10 +11214,11 @@
       <c r="F242" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H242" s="2" t="s">
+      <c r="G242" s="3"/>
+      <c r="H242" s="4" t="s">
         <v>967</v>
       </c>
-      <c r="I242" s="5" t="s">
+      <c r="I242" s="3" t="s">
         <v>968</v>
       </c>
     </row>
@@ -10996,7 +11232,7 @@
       <c r="C243" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D243" s="1">
+      <c r="D243" s="2">
         <v>250.0</v>
       </c>
       <c r="E243" s="1" t="s">
@@ -11005,10 +11241,11 @@
       <c r="F243" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H243" s="2" t="s">
+      <c r="G243" s="3"/>
+      <c r="H243" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="I243" s="5" t="s">
+      <c r="I243" s="3" t="s">
         <v>972</v>
       </c>
     </row>
@@ -11022,7 +11259,7 @@
       <c r="C244" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D244" s="1">
+      <c r="D244" s="2">
         <v>251.0</v>
       </c>
       <c r="E244" s="1" t="s">
@@ -11031,10 +11268,11 @@
       <c r="F244" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H244" s="2" t="s">
+      <c r="G244" s="3"/>
+      <c r="H244" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="I244" s="5" t="s">
+      <c r="I244" s="3" t="s">
         <v>976</v>
       </c>
     </row>
@@ -11048,7 +11286,7 @@
       <c r="C245" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D245" s="1">
+      <c r="D245" s="2">
         <v>252.0</v>
       </c>
       <c r="E245" s="1" t="s">
@@ -11057,10 +11295,11 @@
       <c r="F245" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H245" s="2" t="s">
+      <c r="G245" s="3"/>
+      <c r="H245" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="I245" s="5" t="s">
+      <c r="I245" s="3" t="s">
         <v>980</v>
       </c>
     </row>
@@ -11074,7 +11313,7 @@
       <c r="C246" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D246" s="1">
+      <c r="D246" s="2">
         <v>253.0</v>
       </c>
       <c r="E246" s="1" t="s">
@@ -11083,10 +11322,11 @@
       <c r="F246" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H246" s="2" t="s">
+      <c r="G246" s="3"/>
+      <c r="H246" s="4" t="s">
         <v>983</v>
       </c>
-      <c r="I246" s="5" t="s">
+      <c r="I246" s="3" t="s">
         <v>984</v>
       </c>
     </row>
@@ -11100,7 +11340,7 @@
       <c r="C247" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D247" s="1">
+      <c r="D247" s="2">
         <v>254.0</v>
       </c>
       <c r="E247" s="1" t="s">
@@ -11109,10 +11349,11 @@
       <c r="F247" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H247" s="2" t="s">
+      <c r="G247" s="3"/>
+      <c r="H247" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="I247" s="5" t="s">
+      <c r="I247" s="3" t="s">
         <v>988</v>
       </c>
     </row>
@@ -11126,7 +11367,7 @@
       <c r="C248" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D248" s="1">
+      <c r="D248" s="2">
         <v>255.0</v>
       </c>
       <c r="E248" s="1" t="s">
@@ -11135,10 +11376,11 @@
       <c r="F248" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H248" s="2" t="s">
+      <c r="G248" s="3"/>
+      <c r="H248" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="I248" s="5" t="s">
+      <c r="I248" s="3" t="s">
         <v>992</v>
       </c>
     </row>
@@ -11152,7 +11394,7 @@
       <c r="C249" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D249" s="1">
+      <c r="D249" s="2">
         <v>256.0</v>
       </c>
       <c r="E249" s="1" t="s">
@@ -11161,10 +11403,11 @@
       <c r="F249" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H249" s="2" t="s">
+      <c r="G249" s="3"/>
+      <c r="H249" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="I249" s="5" t="s">
+      <c r="I249" s="3" t="s">
         <v>996</v>
       </c>
     </row>
@@ -11178,7 +11421,7 @@
       <c r="C250" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D250" s="1">
+      <c r="D250" s="2">
         <v>257.0</v>
       </c>
       <c r="E250" s="1" t="s">
@@ -11187,10 +11430,11 @@
       <c r="F250" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H250" s="2" t="s">
+      <c r="G250" s="3"/>
+      <c r="H250" s="4" t="s">
         <v>999</v>
       </c>
-      <c r="I250" s="5" t="s">
+      <c r="I250" s="3" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -11204,7 +11448,7 @@
       <c r="C251" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D251" s="1">
+      <c r="D251" s="2">
         <v>258.0</v>
       </c>
       <c r="E251" s="1" t="s">
@@ -11213,10 +11457,11 @@
       <c r="F251" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H251" s="2" t="s">
+      <c r="G251" s="3"/>
+      <c r="H251" s="4" t="s">
         <v>1003</v>
       </c>
-      <c r="I251" s="5" t="s">
+      <c r="I251" s="3" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -11230,7 +11475,7 @@
       <c r="C252" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D252" s="1">
+      <c r="D252" s="2">
         <v>259.0</v>
       </c>
       <c r="E252" s="1" t="s">
@@ -11239,10 +11484,11 @@
       <c r="F252" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H252" s="2" t="s">
+      <c r="G252" s="3"/>
+      <c r="H252" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="I252" s="5" t="s">
+      <c r="I252" s="3" t="s">
         <v>1008</v>
       </c>
     </row>
@@ -11256,7 +11502,7 @@
       <c r="C253" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D253" s="1">
+      <c r="D253" s="2">
         <v>260.0</v>
       </c>
       <c r="E253" s="1" t="s">
@@ -11265,10 +11511,11 @@
       <c r="F253" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H253" s="2" t="s">
+      <c r="G253" s="3"/>
+      <c r="H253" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="I253" s="5" t="s">
+      <c r="I253" s="3" t="s">
         <v>1012</v>
       </c>
     </row>
@@ -11282,7 +11529,7 @@
       <c r="C254" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D254" s="1">
+      <c r="D254" s="2">
         <v>261.0</v>
       </c>
       <c r="E254" s="1" t="s">
@@ -11291,10 +11538,11 @@
       <c r="F254" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H254" s="2" t="s">
+      <c r="G254" s="3"/>
+      <c r="H254" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="I254" s="5" t="s">
+      <c r="I254" s="3" t="s">
         <v>1016</v>
       </c>
     </row>
@@ -11308,7 +11556,7 @@
       <c r="C255" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D255" s="1">
+      <c r="D255" s="2">
         <v>262.0</v>
       </c>
       <c r="E255" s="1" t="s">
@@ -11317,10 +11565,11 @@
       <c r="F255" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H255" s="2" t="s">
+      <c r="G255" s="3"/>
+      <c r="H255" s="4" t="s">
         <v>1019</v>
       </c>
-      <c r="I255" s="5" t="s">
+      <c r="I255" s="3" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -11334,7 +11583,7 @@
       <c r="C256" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D256" s="1">
+      <c r="D256" s="2">
         <v>263.0</v>
       </c>
       <c r="E256" s="1" t="s">
@@ -11343,10 +11592,11 @@
       <c r="F256" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H256" s="2" t="s">
+      <c r="G256" s="3"/>
+      <c r="H256" s="4" t="s">
         <v>1023</v>
       </c>
-      <c r="I256" s="5" t="s">
+      <c r="I256" s="3" t="s">
         <v>1024</v>
       </c>
     </row>
@@ -11360,7 +11610,7 @@
       <c r="C257" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D257" s="1">
+      <c r="D257" s="2">
         <v>264.0</v>
       </c>
       <c r="E257" s="1" t="s">
@@ -11369,10 +11619,11 @@
       <c r="F257" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H257" s="2" t="s">
+      <c r="G257" s="3"/>
+      <c r="H257" s="4" t="s">
         <v>1027</v>
       </c>
-      <c r="I257" s="5" t="s">
+      <c r="I257" s="3" t="s">
         <v>1028</v>
       </c>
     </row>
@@ -11386,7 +11637,7 @@
       <c r="C258" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D258" s="1">
+      <c r="D258" s="2">
         <v>265.0</v>
       </c>
       <c r="E258" s="1" t="s">
@@ -11395,10 +11646,11 @@
       <c r="F258" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H258" s="2" t="s">
+      <c r="G258" s="3"/>
+      <c r="H258" s="4" t="s">
         <v>1031</v>
       </c>
-      <c r="I258" s="5" t="s">
+      <c r="I258" s="3" t="s">
         <v>1032</v>
       </c>
     </row>
@@ -11412,7 +11664,7 @@
       <c r="C259" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D259" s="1">
+      <c r="D259" s="2">
         <v>266.0</v>
       </c>
       <c r="E259" s="1" t="s">
@@ -11421,10 +11673,11 @@
       <c r="F259" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H259" s="2" t="s">
+      <c r="G259" s="3"/>
+      <c r="H259" s="4" t="s">
         <v>1035</v>
       </c>
-      <c r="I259" s="5" t="s">
+      <c r="I259" s="3" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -11438,7 +11691,7 @@
       <c r="C260" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D260" s="1">
+      <c r="D260" s="2">
         <v>267.0</v>
       </c>
       <c r="E260" s="1" t="s">
@@ -11447,10 +11700,11 @@
       <c r="F260" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H260" s="2" t="s">
+      <c r="G260" s="3"/>
+      <c r="H260" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="I260" s="5" t="s">
+      <c r="I260" s="3" t="s">
         <v>1040</v>
       </c>
     </row>
@@ -11464,7 +11718,7 @@
       <c r="C261" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D261" s="1">
+      <c r="D261" s="2">
         <v>268.0</v>
       </c>
       <c r="E261" s="1" t="s">
@@ -11473,10 +11727,11 @@
       <c r="F261" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H261" s="2" t="s">
+      <c r="G261" s="3"/>
+      <c r="H261" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="I261" s="5" t="s">
+      <c r="I261" s="3" t="s">
         <v>1044</v>
       </c>
     </row>
@@ -11490,7 +11745,7 @@
       <c r="C262" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D262" s="1">
+      <c r="D262" s="2">
         <v>269.0</v>
       </c>
       <c r="E262" s="1" t="s">
@@ -11499,10 +11754,11 @@
       <c r="F262" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H262" s="2" t="s">
+      <c r="G262" s="3"/>
+      <c r="H262" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="I262" s="5" t="s">
+      <c r="I262" s="3" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -11516,7 +11772,7 @@
       <c r="C263" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D263" s="1">
+      <c r="D263" s="2">
         <v>270.0</v>
       </c>
       <c r="E263" s="1" t="s">
@@ -11525,10 +11781,11 @@
       <c r="F263" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H263" s="2" t="s">
+      <c r="G263" s="3"/>
+      <c r="H263" s="4" t="s">
         <v>1051</v>
       </c>
-      <c r="I263" s="3" t="s">
+      <c r="I263" s="5" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -11542,7 +11799,7 @@
       <c r="C264" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D264" s="1">
+      <c r="D264" s="2">
         <v>271.0</v>
       </c>
       <c r="E264" s="1" t="s">
@@ -11551,10 +11808,11 @@
       <c r="F264" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H264" s="2" t="s">
+      <c r="G264" s="3"/>
+      <c r="H264" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="I264" s="3" t="s">
+      <c r="I264" s="5" t="s">
         <v>1056</v>
       </c>
     </row>
@@ -11568,7 +11826,7 @@
       <c r="C265" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D265" s="1">
+      <c r="D265" s="2">
         <v>272.0</v>
       </c>
       <c r="E265" s="1" t="s">
@@ -11577,10 +11835,11 @@
       <c r="F265" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H265" s="2" t="s">
+      <c r="G265" s="3"/>
+      <c r="H265" s="4" t="s">
         <v>1059</v>
       </c>
-      <c r="I265" s="3" t="s">
+      <c r="I265" s="5" t="s">
         <v>1060</v>
       </c>
     </row>
@@ -11594,7 +11853,7 @@
       <c r="C266" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D266" s="1">
+      <c r="D266" s="2">
         <v>273.0</v>
       </c>
       <c r="E266" s="1" t="s">
@@ -11603,10 +11862,11 @@
       <c r="F266" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H266" s="2" t="s">
+      <c r="G266" s="3"/>
+      <c r="H266" s="4" t="s">
         <v>1063</v>
       </c>
-      <c r="I266" s="3" t="s">
+      <c r="I266" s="5" t="s">
         <v>1064</v>
       </c>
     </row>
@@ -11620,7 +11880,7 @@
       <c r="C267" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D267" s="1">
+      <c r="D267" s="2">
         <v>274.0</v>
       </c>
       <c r="E267" s="1" t="s">
@@ -11629,10 +11889,11 @@
       <c r="F267" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H267" s="2" t="s">
+      <c r="G267" s="3"/>
+      <c r="H267" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="I267" s="3" t="s">
+      <c r="I267" s="5" t="s">
         <v>1068</v>
       </c>
     </row>
@@ -11646,7 +11907,7 @@
       <c r="C268" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D268" s="1">
+      <c r="D268" s="2">
         <v>275.0</v>
       </c>
       <c r="E268" s="1" t="s">
@@ -11655,10 +11916,11 @@
       <c r="F268" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H268" s="2" t="s">
+      <c r="G268" s="3"/>
+      <c r="H268" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I268" s="5" t="s">
+      <c r="I268" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11672,7 +11934,7 @@
       <c r="C269" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D269" s="1">
+      <c r="D269" s="2">
         <v>276.0</v>
       </c>
       <c r="E269" s="1" t="s">
@@ -11681,10 +11943,11 @@
       <c r="F269" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H269" s="2" t="s">
+      <c r="G269" s="3"/>
+      <c r="H269" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I269" s="5" t="s">
+      <c r="I269" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11698,7 +11961,7 @@
       <c r="C270" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D270" s="1">
+      <c r="D270" s="2">
         <v>277.0</v>
       </c>
       <c r="E270" s="1" t="s">
@@ -11707,10 +11970,11 @@
       <c r="F270" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H270" s="2" t="s">
+      <c r="G270" s="3"/>
+      <c r="H270" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I270" s="5" t="s">
+      <c r="I270" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11724,7 +11988,7 @@
       <c r="C271" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D271" s="1">
+      <c r="D271" s="2">
         <v>278.0</v>
       </c>
       <c r="E271" s="1" t="s">
@@ -11733,10 +11997,11 @@
       <c r="F271" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H271" s="2" t="s">
+      <c r="G271" s="3"/>
+      <c r="H271" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I271" s="5" t="s">
+      <c r="I271" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11750,7 +12015,7 @@
       <c r="C272" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D272" s="1">
+      <c r="D272" s="2">
         <v>279.0</v>
       </c>
       <c r="E272" s="1" t="s">
@@ -11759,10 +12024,11 @@
       <c r="F272" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H272" s="2" t="s">
+      <c r="G272" s="3"/>
+      <c r="H272" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I272" s="5" t="s">
+      <c r="I272" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11776,7 +12042,7 @@
       <c r="C273" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D273" s="1">
+      <c r="D273" s="2">
         <v>280.0</v>
       </c>
       <c r="E273" s="1" t="s">
@@ -11785,10 +12051,11 @@
       <c r="F273" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H273" s="2" t="s">
+      <c r="G273" s="3"/>
+      <c r="H273" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I273" s="5" t="s">
+      <c r="I273" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11802,7 +12069,7 @@
       <c r="C274" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D274" s="1">
+      <c r="D274" s="2">
         <v>281.0</v>
       </c>
       <c r="E274" s="1" t="s">
@@ -11811,10 +12078,11 @@
       <c r="F274" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H274" s="2" t="s">
+      <c r="G274" s="3"/>
+      <c r="H274" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I274" s="5" t="s">
+      <c r="I274" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11828,7 +12096,7 @@
       <c r="C275" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D275" s="1">
+      <c r="D275" s="2">
         <v>282.0</v>
       </c>
       <c r="E275" s="1" t="s">
@@ -11837,10 +12105,11 @@
       <c r="F275" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H275" s="2" t="s">
+      <c r="G275" s="3"/>
+      <c r="H275" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I275" s="5" t="s">
+      <c r="I275" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11854,7 +12123,7 @@
       <c r="C276" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D276" s="1">
+      <c r="D276" s="2">
         <v>283.0</v>
       </c>
       <c r="E276" s="1" t="s">
@@ -11863,10 +12132,11 @@
       <c r="F276" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H276" s="2" t="s">
+      <c r="G276" s="3"/>
+      <c r="H276" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I276" s="5" t="s">
+      <c r="I276" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11880,7 +12150,7 @@
       <c r="C277" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D277" s="1">
+      <c r="D277" s="2">
         <v>284.0</v>
       </c>
       <c r="E277" s="1" t="s">
@@ -11889,10 +12159,11 @@
       <c r="F277" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H277" s="2" t="s">
+      <c r="G277" s="3"/>
+      <c r="H277" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I277" s="5" t="s">
+      <c r="I277" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11906,7 +12177,7 @@
       <c r="C278" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D278" s="1">
+      <c r="D278" s="2">
         <v>285.0</v>
       </c>
       <c r="E278" s="1" t="s">
@@ -11915,10 +12186,11 @@
       <c r="F278" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H278" s="2" t="s">
+      <c r="G278" s="3"/>
+      <c r="H278" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I278" s="5" t="s">
+      <c r="I278" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11932,7 +12204,7 @@
       <c r="C279" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D279" s="1">
+      <c r="D279" s="2">
         <v>286.0</v>
       </c>
       <c r="E279" s="1" t="s">
@@ -11941,10 +12213,11 @@
       <c r="F279" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H279" s="2" t="s">
+      <c r="G279" s="3"/>
+      <c r="H279" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I279" s="5" t="s">
+      <c r="I279" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11958,7 +12231,7 @@
       <c r="C280" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D280" s="1">
+      <c r="D280" s="2">
         <v>287.0</v>
       </c>
       <c r="E280" s="1" t="s">
@@ -11967,10 +12240,11 @@
       <c r="F280" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H280" s="2" t="s">
+      <c r="G280" s="3"/>
+      <c r="H280" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I280" s="5" t="s">
+      <c r="I280" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11984,7 +12258,7 @@
       <c r="C281" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D281" s="1">
+      <c r="D281" s="2">
         <v>288.0</v>
       </c>
       <c r="E281" s="1" t="s">
@@ -11993,10 +12267,11 @@
       <c r="F281" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H281" s="2" t="s">
+      <c r="G281" s="3"/>
+      <c r="H281" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I281" s="5" t="s">
+      <c r="I281" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -12010,7 +12285,7 @@
       <c r="C282" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D282" s="1">
+      <c r="D282" s="2">
         <v>289.0</v>
       </c>
       <c r="E282" s="1" t="s">
@@ -12019,10 +12294,11 @@
       <c r="F282" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H282" s="2" t="s">
+      <c r="G282" s="3"/>
+      <c r="H282" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I282" s="5" t="s">
+      <c r="I282" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -12036,7 +12312,7 @@
       <c r="C283" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D283" s="1">
+      <c r="D283" s="2">
         <v>290.0</v>
       </c>
       <c r="E283" s="1" t="s">
@@ -12045,10 +12321,11 @@
       <c r="F283" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H283" s="2" t="s">
+      <c r="G283" s="3"/>
+      <c r="H283" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I283" s="5" t="s">
+      <c r="I283" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -12062,7 +12339,7 @@
       <c r="C284" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D284" s="1">
+      <c r="D284" s="2">
         <v>291.0</v>
       </c>
       <c r="E284" s="1" t="s">
@@ -12071,10 +12348,11 @@
       <c r="F284" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H284" s="2" t="s">
+      <c r="G284" s="3"/>
+      <c r="H284" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I284" s="5" t="s">
+      <c r="I284" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -12088,7 +12366,7 @@
       <c r="C285" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D285" s="1">
+      <c r="D285" s="2">
         <v>292.0</v>
       </c>
       <c r="E285" s="1" t="s">
@@ -12097,10 +12375,11 @@
       <c r="F285" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H285" s="2" t="s">
+      <c r="G285" s="3"/>
+      <c r="H285" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I285" s="5" t="s">
+      <c r="I285" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -12114,7 +12393,7 @@
       <c r="C286" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D286" s="1">
+      <c r="D286" s="2">
         <v>293.0</v>
       </c>
       <c r="E286" s="1" t="s">
@@ -12123,10 +12402,11 @@
       <c r="F286" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H286" s="2" t="s">
+      <c r="G286" s="3"/>
+      <c r="H286" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I286" s="5" t="s">
+      <c r="I286" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -12140,7 +12420,7 @@
       <c r="C287" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D287" s="1">
+      <c r="D287" s="2">
         <v>294.0</v>
       </c>
       <c r="E287" s="1" t="s">
@@ -12149,10 +12429,11 @@
       <c r="F287" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H287" s="2" t="s">
+      <c r="G287" s="3"/>
+      <c r="H287" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I287" s="5" t="s">
+      <c r="I287" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -12166,7 +12447,7 @@
       <c r="C288" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D288" s="1">
+      <c r="D288" s="2">
         <v>295.0</v>
       </c>
       <c r="E288" s="1" t="s">
@@ -12175,10 +12456,11 @@
       <c r="F288" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H288" s="2" t="s">
+      <c r="G288" s="3"/>
+      <c r="H288" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I288" s="5" t="s">
+      <c r="I288" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -12192,7 +12474,7 @@
       <c r="C289" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D289" s="1">
+      <c r="D289" s="2">
         <v>296.0</v>
       </c>
       <c r="E289" s="1" t="s">
@@ -12201,10 +12483,11 @@
       <c r="F289" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H289" s="2" t="s">
+      <c r="G289" s="3"/>
+      <c r="H289" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I289" s="5" t="s">
+      <c r="I289" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -12218,7 +12501,7 @@
       <c r="C290" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D290" s="1">
+      <c r="D290" s="2">
         <v>297.0</v>
       </c>
       <c r="E290" s="1" t="s">
@@ -12227,10 +12510,11 @@
       <c r="F290" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H290" s="2" t="s">
+      <c r="G290" s="3"/>
+      <c r="H290" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I290" s="5" t="s">
+      <c r="I290" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -12244,7 +12528,7 @@
       <c r="C291" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D291" s="1">
+      <c r="D291" s="2">
         <v>298.0</v>
       </c>
       <c r="E291" s="1" t="s">
@@ -12253,10 +12537,11 @@
       <c r="F291" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H291" s="2" t="s">
+      <c r="G291" s="3"/>
+      <c r="H291" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I291" s="5" t="s">
+      <c r="I291" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -12270,7 +12555,7 @@
       <c r="C292" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D292" s="1">
+      <c r="D292" s="2">
         <v>299.0</v>
       </c>
       <c r="E292" s="1" t="s">
@@ -12279,10 +12564,11 @@
       <c r="F292" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H292" s="2" t="s">
+      <c r="G292" s="3"/>
+      <c r="H292" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I292" s="5" t="s">
+      <c r="I292" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -12296,7 +12582,7 @@
       <c r="C293" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D293" s="1">
+      <c r="D293" s="2">
         <v>300.0</v>
       </c>
       <c r="E293" s="1" t="s">
@@ -12305,10 +12591,11 @@
       <c r="F293" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H293" s="2" t="s">
+      <c r="G293" s="3"/>
+      <c r="H293" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="I293" s="5" t="s">
+      <c r="I293" s="3" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -12322,7 +12609,7 @@
       <c r="C294" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D294" s="1">
+      <c r="D294" s="2">
         <v>301.0</v>
       </c>
       <c r="E294" s="1" t="s">
@@ -12331,10 +12618,11 @@
       <c r="F294" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H294" s="2" t="s">
+      <c r="G294" s="3"/>
+      <c r="H294" s="4" t="s">
         <v>1125</v>
       </c>
-      <c r="I294" s="5" t="s">
+      <c r="I294" s="3" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -12348,7 +12636,7 @@
       <c r="C295" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D295" s="1">
+      <c r="D295" s="2">
         <v>302.0</v>
       </c>
       <c r="E295" s="1" t="s">
@@ -12357,10 +12645,11 @@
       <c r="F295" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H295" s="2" t="s">
+      <c r="G295" s="3"/>
+      <c r="H295" s="4" t="s">
         <v>1129</v>
       </c>
-      <c r="I295" s="3" t="s">
+      <c r="I295" s="5" t="s">
         <v>1130</v>
       </c>
     </row>
@@ -12374,7 +12663,7 @@
       <c r="C296" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D296" s="1">
+      <c r="D296" s="2">
         <v>303.0</v>
       </c>
       <c r="E296" s="1" t="s">
@@ -12383,10 +12672,11 @@
       <c r="F296" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H296" s="2" t="s">
+      <c r="G296" s="3"/>
+      <c r="H296" s="4" t="s">
         <v>1133</v>
       </c>
-      <c r="I296" s="5" t="s">
+      <c r="I296" s="3" t="s">
         <v>1134</v>
       </c>
     </row>
@@ -12400,7 +12690,7 @@
       <c r="C297" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D297" s="1">
+      <c r="D297" s="2">
         <v>304.0</v>
       </c>
       <c r="E297" s="1" t="s">
@@ -12409,10 +12699,11 @@
       <c r="F297" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H297" s="2" t="s">
+      <c r="G297" s="3"/>
+      <c r="H297" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="I297" s="5" t="s">
+      <c r="I297" s="3" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -12426,7 +12717,7 @@
       <c r="C298" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D298" s="1">
+      <c r="D298" s="2">
         <v>305.0</v>
       </c>
       <c r="E298" s="1" t="s">
@@ -12435,10 +12726,11 @@
       <c r="F298" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H298" s="2" t="s">
+      <c r="G298" s="3"/>
+      <c r="H298" s="4" t="s">
         <v>1125</v>
       </c>
-      <c r="I298" s="5" t="s">
+      <c r="I298" s="3" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -12452,7 +12744,7 @@
       <c r="C299" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D299" s="1">
+      <c r="D299" s="2">
         <v>306.0</v>
       </c>
       <c r="E299" s="1" t="s">
@@ -12461,10 +12753,11 @@
       <c r="F299" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H299" s="2" t="s">
+      <c r="G299" s="3"/>
+      <c r="H299" s="4" t="s">
         <v>1129</v>
       </c>
-      <c r="I299" s="3" t="s">
+      <c r="I299" s="5" t="s">
         <v>1130</v>
       </c>
     </row>
@@ -12478,7 +12771,7 @@
       <c r="C300" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D300" s="1">
+      <c r="D300" s="2">
         <v>307.0</v>
       </c>
       <c r="E300" s="1" t="s">
@@ -12487,10 +12780,11 @@
       <c r="F300" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H300" s="2" t="s">
+      <c r="G300" s="3"/>
+      <c r="H300" s="4" t="s">
         <v>1133</v>
       </c>
-      <c r="I300" s="5" t="s">
+      <c r="I300" s="3" t="s">
         <v>1134</v>
       </c>
     </row>
@@ -12504,7 +12798,7 @@
       <c r="C301" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D301" s="1">
+      <c r="D301" s="2">
         <v>308.0</v>
       </c>
       <c r="E301" s="1" t="s">
@@ -12513,10 +12807,11 @@
       <c r="F301" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H301" s="2" t="s">
+      <c r="G301" s="3"/>
+      <c r="H301" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="I301" s="5" t="s">
+      <c r="I301" s="3" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -12530,7 +12825,7 @@
       <c r="C302" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D302" s="1">
+      <c r="D302" s="2">
         <v>309.0</v>
       </c>
       <c r="E302" s="1" t="s">
@@ -12539,10 +12834,11 @@
       <c r="F302" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H302" s="2" t="s">
+      <c r="G302" s="3"/>
+      <c r="H302" s="4" t="s">
         <v>1125</v>
       </c>
-      <c r="I302" s="5" t="s">
+      <c r="I302" s="3" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -12556,7 +12852,7 @@
       <c r="C303" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D303" s="1">
+      <c r="D303" s="2">
         <v>310.0</v>
       </c>
       <c r="E303" s="1" t="s">
@@ -12565,10 +12861,11 @@
       <c r="F303" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H303" s="2" t="s">
+      <c r="G303" s="3"/>
+      <c r="H303" s="4" t="s">
         <v>1129</v>
       </c>
-      <c r="I303" s="3" t="s">
+      <c r="I303" s="5" t="s">
         <v>1130</v>
       </c>
     </row>
@@ -12582,7 +12879,7 @@
       <c r="C304" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D304" s="1">
+      <c r="D304" s="2">
         <v>311.0</v>
       </c>
       <c r="E304" s="1" t="s">
@@ -12591,10 +12888,11 @@
       <c r="F304" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H304" s="2" t="s">
+      <c r="G304" s="3"/>
+      <c r="H304" s="4" t="s">
         <v>1133</v>
       </c>
-      <c r="I304" s="5" t="s">
+      <c r="I304" s="3" t="s">
         <v>1134</v>
       </c>
     </row>
@@ -12608,7 +12906,7 @@
       <c r="C305" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D305" s="1">
+      <c r="D305" s="2">
         <v>312.0</v>
       </c>
       <c r="E305" s="1" t="s">
@@ -12617,10 +12915,11 @@
       <c r="F305" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H305" s="2" t="s">
+      <c r="G305" s="3"/>
+      <c r="H305" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="I305" s="5" t="s">
+      <c r="I305" s="3" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -12634,7 +12933,7 @@
       <c r="C306" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D306" s="1">
+      <c r="D306" s="2">
         <v>313.0</v>
       </c>
       <c r="E306" s="1" t="s">
@@ -12643,10 +12942,11 @@
       <c r="F306" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H306" s="2" t="s">
+      <c r="G306" s="3"/>
+      <c r="H306" s="4" t="s">
         <v>1125</v>
       </c>
-      <c r="I306" s="5" t="s">
+      <c r="I306" s="3" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -12660,7 +12960,7 @@
       <c r="C307" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D307" s="1">
+      <c r="D307" s="2">
         <v>314.0</v>
       </c>
       <c r="E307" s="1" t="s">
@@ -12669,10 +12969,11 @@
       <c r="F307" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H307" s="2" t="s">
+      <c r="G307" s="3"/>
+      <c r="H307" s="4" t="s">
         <v>1129</v>
       </c>
-      <c r="I307" s="3" t="s">
+      <c r="I307" s="5" t="s">
         <v>1130</v>
       </c>
     </row>
@@ -12686,7 +12987,7 @@
       <c r="C308" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D308" s="1">
+      <c r="D308" s="2">
         <v>315.0</v>
       </c>
       <c r="E308" s="1" t="s">
@@ -12695,10 +12996,11 @@
       <c r="F308" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H308" s="2" t="s">
+      <c r="G308" s="3"/>
+      <c r="H308" s="4" t="s">
         <v>1133</v>
       </c>
-      <c r="I308" s="5" t="s">
+      <c r="I308" s="3" t="s">
         <v>1134</v>
       </c>
     </row>
@@ -12712,7 +13014,7 @@
       <c r="C309" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D309" s="1">
+      <c r="D309" s="2">
         <v>316.0</v>
       </c>
       <c r="E309" s="1" t="s">
@@ -12721,10 +13023,11 @@
       <c r="F309" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H309" s="2" t="s">
+      <c r="G309" s="3"/>
+      <c r="H309" s="4" t="s">
         <v>1161</v>
       </c>
-      <c r="I309" s="3" t="s">
+      <c r="I309" s="5" t="s">
         <v>1162</v>
       </c>
     </row>
@@ -12738,7 +13041,7 @@
       <c r="C310" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D310" s="1">
+      <c r="D310" s="2">
         <v>317.0</v>
       </c>
       <c r="E310" s="1" t="s">
@@ -12747,10 +13050,11 @@
       <c r="F310" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H310" s="2" t="s">
+      <c r="G310" s="3"/>
+      <c r="H310" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="I310" s="3" t="s">
+      <c r="I310" s="5" t="s">
         <v>1166</v>
       </c>
     </row>
@@ -12764,7 +13068,7 @@
       <c r="C311" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D311" s="1">
+      <c r="D311" s="2">
         <v>318.0</v>
       </c>
       <c r="E311" s="1" t="s">
@@ -12773,10 +13077,11 @@
       <c r="F311" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H311" s="2" t="s">
+      <c r="G311" s="3"/>
+      <c r="H311" s="4" t="s">
         <v>1169</v>
       </c>
-      <c r="I311" s="3" t="s">
+      <c r="I311" s="5" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -12790,7 +13095,7 @@
       <c r="C312" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D312" s="1">
+      <c r="D312" s="2">
         <v>319.0</v>
       </c>
       <c r="E312" s="1" t="s">
@@ -12799,10 +13104,11 @@
       <c r="F312" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H312" s="2" t="s">
+      <c r="G312" s="3"/>
+      <c r="H312" s="4" t="s">
         <v>1173</v>
       </c>
-      <c r="I312" s="3" t="s">
+      <c r="I312" s="5" t="s">
         <v>1174</v>
       </c>
     </row>
@@ -12816,7 +13122,7 @@
       <c r="C313" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D313" s="1">
+      <c r="D313" s="2">
         <v>320.0</v>
       </c>
       <c r="E313" s="1" t="s">
@@ -12825,10 +13131,11 @@
       <c r="F313" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H313" s="2" t="s">
+      <c r="G313" s="3"/>
+      <c r="H313" s="4" t="s">
         <v>1177</v>
       </c>
-      <c r="I313" s="3" t="s">
+      <c r="I313" s="5" t="s">
         <v>1178</v>
       </c>
     </row>
@@ -12842,7 +13149,7 @@
       <c r="C314" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D314" s="1">
+      <c r="D314" s="2">
         <v>321.0</v>
       </c>
       <c r="E314" s="1" t="s">
@@ -12851,10 +13158,11 @@
       <c r="F314" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H314" s="2" t="s">
+      <c r="G314" s="3"/>
+      <c r="H314" s="4" t="s">
         <v>1181</v>
       </c>
-      <c r="I314" s="3" t="s">
+      <c r="I314" s="5" t="s">
         <v>1182</v>
       </c>
     </row>
@@ -12868,7 +13176,7 @@
       <c r="C315" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D315" s="1">
+      <c r="D315" s="2">
         <v>322.0</v>
       </c>
       <c r="E315" s="1" t="s">
@@ -12877,10 +13185,11 @@
       <c r="F315" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H315" s="2" t="s">
+      <c r="G315" s="3"/>
+      <c r="H315" s="4" t="s">
         <v>1185</v>
       </c>
-      <c r="I315" s="3" t="s">
+      <c r="I315" s="5" t="s">
         <v>1186</v>
       </c>
     </row>
@@ -12894,7 +13203,7 @@
       <c r="C316" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D316" s="1">
+      <c r="D316" s="2">
         <v>323.0</v>
       </c>
       <c r="E316" s="1" t="s">
@@ -12903,10 +13212,11 @@
       <c r="F316" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H316" s="2" t="s">
+      <c r="G316" s="3"/>
+      <c r="H316" s="4" t="s">
         <v>1189</v>
       </c>
-      <c r="I316" s="3" t="s">
+      <c r="I316" s="5" t="s">
         <v>1190</v>
       </c>
     </row>
@@ -12920,7 +13230,7 @@
       <c r="C317" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D317" s="1">
+      <c r="D317" s="2">
         <v>324.0</v>
       </c>
       <c r="E317" s="1" t="s">
@@ -12929,10 +13239,11 @@
       <c r="F317" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H317" s="2" t="s">
+      <c r="G317" s="3"/>
+      <c r="H317" s="4" t="s">
         <v>1193</v>
       </c>
-      <c r="I317" s="3" t="s">
+      <c r="I317" s="5" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -12946,7 +13257,7 @@
       <c r="C318" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D318" s="1">
+      <c r="D318" s="2">
         <v>325.0</v>
       </c>
       <c r="E318" s="1" t="s">
@@ -12955,10 +13266,11 @@
       <c r="F318" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H318" s="2" t="s">
+      <c r="G318" s="3"/>
+      <c r="H318" s="4" t="s">
         <v>1197</v>
       </c>
-      <c r="I318" s="3" t="s">
+      <c r="I318" s="5" t="s">
         <v>1198</v>
       </c>
     </row>
@@ -12972,7 +13284,7 @@
       <c r="C319" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D319" s="1">
+      <c r="D319" s="2">
         <v>326.0</v>
       </c>
       <c r="E319" s="1" t="s">
@@ -12981,10 +13293,11 @@
       <c r="F319" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H319" s="2" t="s">
+      <c r="G319" s="3"/>
+      <c r="H319" s="4" t="s">
         <v>1201</v>
       </c>
-      <c r="I319" s="3" t="s">
+      <c r="I319" s="5" t="s">
         <v>1202</v>
       </c>
     </row>
@@ -12998,7 +13311,7 @@
       <c r="C320" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D320" s="1">
+      <c r="D320" s="2">
         <v>327.0</v>
       </c>
       <c r="E320" s="1" t="s">
@@ -13007,10 +13320,11 @@
       <c r="F320" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H320" s="2" t="s">
+      <c r="G320" s="3"/>
+      <c r="H320" s="4" t="s">
         <v>1205</v>
       </c>
-      <c r="I320" s="3" t="s">
+      <c r="I320" s="5" t="s">
         <v>1206</v>
       </c>
     </row>
@@ -13024,7 +13338,7 @@
       <c r="C321" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D321" s="1">
+      <c r="D321" s="2">
         <v>328.0</v>
       </c>
       <c r="E321" s="1" t="s">
@@ -13033,10 +13347,11 @@
       <c r="F321" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H321" s="2" t="s">
+      <c r="G321" s="3"/>
+      <c r="H321" s="4" t="s">
         <v>1209</v>
       </c>
-      <c r="I321" s="3" t="s">
+      <c r="I321" s="5" t="s">
         <v>1210</v>
       </c>
     </row>
@@ -13050,7 +13365,7 @@
       <c r="C322" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D322" s="1">
+      <c r="D322" s="2">
         <v>329.0</v>
       </c>
       <c r="E322" s="1" t="s">
@@ -13059,10 +13374,11 @@
       <c r="F322" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H322" s="2" t="s">
+      <c r="G322" s="3"/>
+      <c r="H322" s="4" t="s">
         <v>1213</v>
       </c>
-      <c r="I322" s="3" t="s">
+      <c r="I322" s="5" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -13076,7 +13392,7 @@
       <c r="C323" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D323" s="1">
+      <c r="D323" s="2">
         <v>330.0</v>
       </c>
       <c r="E323" s="1" t="s">
@@ -13085,10 +13401,11 @@
       <c r="F323" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H323" s="2" t="s">
+      <c r="G323" s="3"/>
+      <c r="H323" s="4" t="s">
         <v>1217</v>
       </c>
-      <c r="I323" s="3" t="s">
+      <c r="I323" s="5" t="s">
         <v>1218</v>
       </c>
     </row>
@@ -13102,7 +13419,7 @@
       <c r="C324" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D324" s="1">
+      <c r="D324" s="2">
         <v>331.0</v>
       </c>
       <c r="E324" s="1" t="s">
@@ -13111,10 +13428,11 @@
       <c r="F324" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H324" s="2" t="s">
+      <c r="G324" s="3"/>
+      <c r="H324" s="4" t="s">
         <v>1221</v>
       </c>
-      <c r="I324" s="3" t="s">
+      <c r="I324" s="5" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -13128,7 +13446,7 @@
       <c r="C325" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D325" s="1">
+      <c r="D325" s="2">
         <v>332.0</v>
       </c>
       <c r="E325" s="1" t="s">
@@ -13137,10 +13455,11 @@
       <c r="F325" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H325" s="2" t="s">
+      <c r="G325" s="3"/>
+      <c r="H325" s="4" t="s">
         <v>1225</v>
       </c>
-      <c r="I325" s="3" t="s">
+      <c r="I325" s="5" t="s">
         <v>1226</v>
       </c>
     </row>
@@ -13154,7 +13473,7 @@
       <c r="C326" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D326" s="1">
+      <c r="D326" s="2">
         <v>333.0</v>
       </c>
       <c r="E326" s="1" t="s">
@@ -13163,10 +13482,11 @@
       <c r="F326" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H326" s="2" t="s">
+      <c r="G326" s="3"/>
+      <c r="H326" s="4" t="s">
         <v>1229</v>
       </c>
-      <c r="I326" s="3" t="s">
+      <c r="I326" s="5" t="s">
         <v>1230</v>
       </c>
     </row>
@@ -13180,7 +13500,7 @@
       <c r="C327" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D327" s="1">
+      <c r="D327" s="2">
         <v>334.0</v>
       </c>
       <c r="E327" s="1" t="s">
@@ -13189,10 +13509,11 @@
       <c r="F327" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H327" s="2" t="s">
+      <c r="G327" s="3"/>
+      <c r="H327" s="4" t="s">
         <v>1233</v>
       </c>
-      <c r="I327" s="3" t="s">
+      <c r="I327" s="5" t="s">
         <v>1234</v>
       </c>
     </row>
@@ -13206,7 +13527,7 @@
       <c r="C328" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D328" s="1">
+      <c r="D328" s="2">
         <v>335.0</v>
       </c>
       <c r="E328" s="1" t="s">
@@ -13215,10 +13536,11 @@
       <c r="F328" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H328" s="2" t="s">
+      <c r="G328" s="3"/>
+      <c r="H328" s="4" t="s">
         <v>1237</v>
       </c>
-      <c r="I328" s="3" t="s">
+      <c r="I328" s="5" t="s">
         <v>1238</v>
       </c>
     </row>
@@ -13232,7 +13554,7 @@
       <c r="C329" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D329" s="1">
+      <c r="D329" s="2">
         <v>336.0</v>
       </c>
       <c r="E329" s="1" t="s">
@@ -13241,10 +13563,11 @@
       <c r="F329" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H329" s="2" t="s">
+      <c r="G329" s="3"/>
+      <c r="H329" s="4" t="s">
         <v>1241</v>
       </c>
-      <c r="I329" s="3" t="s">
+      <c r="I329" s="5" t="s">
         <v>1242</v>
       </c>
     </row>
@@ -13258,7 +13581,7 @@
       <c r="C330" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D330" s="1">
+      <c r="D330" s="2">
         <v>337.0</v>
       </c>
       <c r="E330" s="1" t="s">
@@ -13267,10 +13590,11 @@
       <c r="F330" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H330" s="2" t="s">
+      <c r="G330" s="3"/>
+      <c r="H330" s="4" t="s">
         <v>1245</v>
       </c>
-      <c r="I330" s="3" t="s">
+      <c r="I330" s="5" t="s">
         <v>1246</v>
       </c>
     </row>
@@ -13284,7 +13608,7 @@
       <c r="C331" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D331" s="1">
+      <c r="D331" s="2">
         <v>338.0</v>
       </c>
       <c r="E331" s="1" t="s">
@@ -13293,10 +13617,11 @@
       <c r="F331" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H331" s="2" t="s">
+      <c r="G331" s="3"/>
+      <c r="H331" s="4" t="s">
         <v>1249</v>
       </c>
-      <c r="I331" s="3" t="s">
+      <c r="I331" s="5" t="s">
         <v>1250</v>
       </c>
     </row>
@@ -13310,7 +13635,7 @@
       <c r="C332" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D332" s="1">
+      <c r="D332" s="2">
         <v>339.0</v>
       </c>
       <c r="E332" s="1" t="s">
@@ -13319,10 +13644,11 @@
       <c r="F332" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H332" s="2" t="s">
+      <c r="G332" s="3"/>
+      <c r="H332" s="4" t="s">
         <v>1253</v>
       </c>
-      <c r="I332" s="3" t="s">
+      <c r="I332" s="5" t="s">
         <v>1254</v>
       </c>
     </row>
@@ -13336,7 +13662,7 @@
       <c r="C333" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D333" s="1">
+      <c r="D333" s="2">
         <v>340.0</v>
       </c>
       <c r="E333" s="1" t="s">
@@ -13345,10 +13671,11 @@
       <c r="F333" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H333" s="2" t="s">
+      <c r="G333" s="3"/>
+      <c r="H333" s="4" t="s">
         <v>1257</v>
       </c>
-      <c r="I333" s="3" t="s">
+      <c r="I333" s="5" t="s">
         <v>1258</v>
       </c>
     </row>
@@ -13362,7 +13689,7 @@
       <c r="C334" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D334" s="1">
+      <c r="D334" s="2">
         <v>341.0</v>
       </c>
       <c r="E334" s="1" t="s">
@@ -13371,10 +13698,11 @@
       <c r="F334" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H334" s="2" t="s">
+      <c r="G334" s="3"/>
+      <c r="H334" s="4" t="s">
         <v>1261</v>
       </c>
-      <c r="I334" s="3" t="s">
+      <c r="I334" s="5" t="s">
         <v>1262</v>
       </c>
     </row>
@@ -13388,7 +13716,7 @@
       <c r="C335" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D335" s="1">
+      <c r="D335" s="2">
         <v>342.0</v>
       </c>
       <c r="E335" s="1" t="s">
@@ -13397,10 +13725,11 @@
       <c r="F335" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H335" s="2" t="s">
+      <c r="G335" s="3"/>
+      <c r="H335" s="4" t="s">
         <v>1265</v>
       </c>
-      <c r="I335" s="3" t="s">
+      <c r="I335" s="5" t="s">
         <v>1266</v>
       </c>
     </row>
@@ -13414,7 +13743,7 @@
       <c r="C336" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D336" s="1">
+      <c r="D336" s="2">
         <v>343.0</v>
       </c>
       <c r="E336" s="1" t="s">
@@ -13423,10 +13752,11 @@
       <c r="F336" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H336" s="2" t="s">
+      <c r="G336" s="3"/>
+      <c r="H336" s="4" t="s">
         <v>1269</v>
       </c>
-      <c r="I336" s="3" t="s">
+      <c r="I336" s="5" t="s">
         <v>1270</v>
       </c>
     </row>
@@ -13440,7 +13770,7 @@
       <c r="C337" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D337" s="1">
+      <c r="D337" s="2">
         <v>344.0</v>
       </c>
       <c r="E337" s="1" t="s">
@@ -13449,10 +13779,11 @@
       <c r="F337" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H337" s="2" t="s">
+      <c r="G337" s="3"/>
+      <c r="H337" s="4" t="s">
         <v>1273</v>
       </c>
-      <c r="I337" s="3" t="s">
+      <c r="I337" s="5" t="s">
         <v>1274</v>
       </c>
     </row>
@@ -13466,7 +13797,7 @@
       <c r="C338" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D338" s="1">
+      <c r="D338" s="2">
         <v>345.0</v>
       </c>
       <c r="E338" s="1" t="s">
@@ -13475,10 +13806,11 @@
       <c r="F338" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H338" s="2" t="s">
+      <c r="G338" s="3"/>
+      <c r="H338" s="4" t="s">
         <v>1277</v>
       </c>
-      <c r="I338" s="3" t="s">
+      <c r="I338" s="5" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -13492,7 +13824,7 @@
       <c r="C339" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D339" s="1">
+      <c r="D339" s="2">
         <v>346.0</v>
       </c>
       <c r="E339" s="1" t="s">
@@ -13501,10 +13833,11 @@
       <c r="F339" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H339" s="2" t="s">
+      <c r="G339" s="3"/>
+      <c r="H339" s="4" t="s">
         <v>1281</v>
       </c>
-      <c r="I339" s="3" t="s">
+      <c r="I339" s="5" t="s">
         <v>1282</v>
       </c>
     </row>
@@ -13518,7 +13851,7 @@
       <c r="C340" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D340" s="1">
+      <c r="D340" s="2">
         <v>347.0</v>
       </c>
       <c r="E340" s="1" t="s">
@@ -13527,10 +13860,11 @@
       <c r="F340" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H340" s="2" t="s">
+      <c r="G340" s="3"/>
+      <c r="H340" s="4" t="s">
         <v>1285</v>
       </c>
-      <c r="I340" s="3" t="s">
+      <c r="I340" s="5" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -13544,7 +13878,7 @@
       <c r="C341" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D341" s="1">
+      <c r="D341" s="2">
         <v>348.0</v>
       </c>
       <c r="E341" s="1" t="s">
@@ -13553,10 +13887,11 @@
       <c r="F341" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H341" s="2" t="s">
+      <c r="G341" s="3"/>
+      <c r="H341" s="4" t="s">
         <v>1289</v>
       </c>
-      <c r="I341" s="3" t="s">
+      <c r="I341" s="5" t="s">
         <v>1290</v>
       </c>
     </row>
@@ -13570,7 +13905,7 @@
       <c r="C342" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D342" s="1">
+      <c r="D342" s="2">
         <v>349.0</v>
       </c>
       <c r="E342" s="1" t="s">
@@ -13579,10 +13914,11 @@
       <c r="F342" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H342" s="2" t="s">
+      <c r="G342" s="3"/>
+      <c r="H342" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="I342" s="3" t="s">
+      <c r="I342" s="5" t="s">
         <v>1294</v>
       </c>
     </row>
@@ -13596,7 +13932,7 @@
       <c r="C343" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D343" s="1">
+      <c r="D343" s="2">
         <v>8.0</v>
       </c>
       <c r="E343" s="1" t="s">
@@ -13605,10 +13941,11 @@
       <c r="F343" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H343" s="2" t="s">
+      <c r="G343" s="3"/>
+      <c r="H343" s="4" t="s">
         <v>1300</v>
       </c>
-      <c r="I343" s="3" t="s">
+      <c r="I343" s="5" t="s">
         <v>1301</v>
       </c>
     </row>
@@ -13622,7 +13959,7 @@
       <c r="C344" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D344" s="1">
+      <c r="D344" s="2">
         <v>9.0</v>
       </c>
       <c r="E344" s="1" t="s">
@@ -13631,10 +13968,11 @@
       <c r="F344" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H344" s="2" t="s">
+      <c r="G344" s="3"/>
+      <c r="H344" s="4" t="s">
         <v>1304</v>
       </c>
-      <c r="I344" s="3" t="s">
+      <c r="I344" s="5" t="s">
         <v>1305</v>
       </c>
     </row>
@@ -13648,7 +13986,7 @@
       <c r="C345" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D345" s="1">
+      <c r="D345" s="2">
         <v>10.0</v>
       </c>
       <c r="E345" s="1" t="s">
@@ -13657,10 +13995,11 @@
       <c r="F345" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H345" s="2" t="s">
+      <c r="G345" s="3"/>
+      <c r="H345" s="4" t="s">
         <v>1308</v>
       </c>
-      <c r="I345" s="3" t="s">
+      <c r="I345" s="5" t="s">
         <v>1309</v>
       </c>
     </row>
@@ -13674,7 +14013,7 @@
       <c r="C346" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D346" s="1">
+      <c r="D346" s="2">
         <v>11.0</v>
       </c>
       <c r="E346" s="1" t="s">
@@ -13683,10 +14022,11 @@
       <c r="F346" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H346" s="2" t="s">
+      <c r="G346" s="3"/>
+      <c r="H346" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I346" s="3" t="s">
+      <c r="I346" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -13700,7 +14040,7 @@
       <c r="C347" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D347" s="1">
+      <c r="D347" s="2">
         <v>12.0</v>
       </c>
       <c r="E347" s="1" t="s">
@@ -13709,10 +14049,11 @@
       <c r="F347" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H347" s="2" t="s">
+      <c r="G347" s="3"/>
+      <c r="H347" s="4" t="s">
         <v>1314</v>
       </c>
-      <c r="I347" s="3" t="s">
+      <c r="I347" s="5" t="s">
         <v>1315</v>
       </c>
     </row>
@@ -13726,7 +14067,7 @@
       <c r="C348" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D348" s="1">
+      <c r="D348" s="2">
         <v>13.0</v>
       </c>
       <c r="E348" s="1" t="s">
@@ -13735,10 +14076,11 @@
       <c r="F348" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H348" s="2" t="s">
+      <c r="G348" s="3"/>
+      <c r="H348" s="4" t="s">
         <v>1318</v>
       </c>
-      <c r="I348" s="3" t="s">
+      <c r="I348" s="5" t="s">
         <v>1319</v>
       </c>
     </row>
@@ -13752,7 +14094,7 @@
       <c r="C349" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D349" s="1">
+      <c r="D349" s="2">
         <v>14.0</v>
       </c>
       <c r="E349" s="1" t="s">
@@ -13761,10 +14103,11 @@
       <c r="F349" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H349" s="2" t="s">
+      <c r="G349" s="3"/>
+      <c r="H349" s="4" t="s">
         <v>1322</v>
       </c>
-      <c r="I349" s="3" t="s">
+      <c r="I349" s="5" t="s">
         <v>1323</v>
       </c>
     </row>
@@ -13778,7 +14121,7 @@
       <c r="C350" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D350" s="1">
+      <c r="D350" s="2">
         <v>15.0</v>
       </c>
       <c r="E350" s="1" t="s">
@@ -13787,10 +14130,11 @@
       <c r="F350" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H350" s="2" t="s">
+      <c r="G350" s="3"/>
+      <c r="H350" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="I350" s="3" t="s">
+      <c r="I350" s="5" t="s">
         <v>1327</v>
       </c>
     </row>
@@ -13804,7 +14148,7 @@
       <c r="C351" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D351" s="1">
+      <c r="D351" s="2">
         <v>16.0</v>
       </c>
       <c r="E351" s="1" t="s">
@@ -13813,10 +14157,11 @@
       <c r="F351" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H351" s="2" t="s">
+      <c r="G351" s="3"/>
+      <c r="H351" s="4" t="s">
         <v>1330</v>
       </c>
-      <c r="I351" s="3" t="s">
+      <c r="I351" s="5" t="s">
         <v>1331</v>
       </c>
     </row>
@@ -13830,7 +14175,7 @@
       <c r="C352" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D352" s="1">
+      <c r="D352" s="2">
         <v>17.0</v>
       </c>
       <c r="E352" s="1" t="s">
@@ -13839,10 +14184,11 @@
       <c r="F352" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H352" s="2" t="s">
+      <c r="G352" s="3"/>
+      <c r="H352" s="4" t="s">
         <v>1334</v>
       </c>
-      <c r="I352" s="3" t="s">
+      <c r="I352" s="5" t="s">
         <v>1335</v>
       </c>
     </row>
@@ -13856,7 +14202,7 @@
       <c r="C353" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D353" s="1">
+      <c r="D353" s="2">
         <v>18.0</v>
       </c>
       <c r="E353" s="1" t="s">
@@ -13865,10 +14211,11 @@
       <c r="F353" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H353" s="2" t="s">
+      <c r="G353" s="3"/>
+      <c r="H353" s="4" t="s">
         <v>1338</v>
       </c>
-      <c r="I353" s="3" t="s">
+      <c r="I353" s="5" t="s">
         <v>1339</v>
       </c>
     </row>
@@ -13882,7 +14229,7 @@
       <c r="C354" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D354" s="1">
+      <c r="D354" s="2">
         <v>19.0</v>
       </c>
       <c r="E354" s="1" t="s">
@@ -13891,10 +14238,11 @@
       <c r="F354" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H354" s="2" t="s">
+      <c r="G354" s="3"/>
+      <c r="H354" s="4" t="s">
         <v>1342</v>
       </c>
-      <c r="I354" s="3" t="s">
+      <c r="I354" s="5" t="s">
         <v>1343</v>
       </c>
     </row>
@@ -13908,7 +14256,7 @@
       <c r="C355" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D355" s="1">
+      <c r="D355" s="2">
         <v>20.0</v>
       </c>
       <c r="E355" s="1" t="s">
@@ -13917,10 +14265,11 @@
       <c r="F355" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H355" s="2" t="s">
+      <c r="G355" s="3"/>
+      <c r="H355" s="4" t="s">
         <v>1346</v>
       </c>
-      <c r="I355" s="3" t="s">
+      <c r="I355" s="5" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -13934,7 +14283,7 @@
       <c r="C356" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D356" s="1">
+      <c r="D356" s="2">
         <v>21.0</v>
       </c>
       <c r="E356" s="1" t="s">
@@ -13943,10 +14292,11 @@
       <c r="F356" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H356" s="2" t="s">
+      <c r="G356" s="3"/>
+      <c r="H356" s="4" t="s">
         <v>1350</v>
       </c>
-      <c r="I356" s="3" t="s">
+      <c r="I356" s="5" t="s">
         <v>1351</v>
       </c>
     </row>
@@ -13960,7 +14310,7 @@
       <c r="C357" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D357" s="1">
+      <c r="D357" s="2">
         <v>22.0</v>
       </c>
       <c r="E357" s="1" t="s">
@@ -13969,10 +14319,11 @@
       <c r="F357" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H357" s="2" t="s">
+      <c r="G357" s="3"/>
+      <c r="H357" s="4" t="s">
         <v>1354</v>
       </c>
-      <c r="I357" s="3" t="s">
+      <c r="I357" s="5" t="s">
         <v>1355</v>
       </c>
     </row>
@@ -13986,7 +14337,7 @@
       <c r="C358" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D358" s="1">
+      <c r="D358" s="2">
         <v>23.0</v>
       </c>
       <c r="E358" s="1" t="s">
@@ -13995,10 +14346,11 @@
       <c r="F358" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H358" s="2" t="s">
+      <c r="G358" s="3"/>
+      <c r="H358" s="4" t="s">
         <v>1358</v>
       </c>
-      <c r="I358" s="3" t="s">
+      <c r="I358" s="5" t="s">
         <v>1359</v>
       </c>
     </row>
@@ -14012,7 +14364,7 @@
       <c r="C359" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D359" s="1">
+      <c r="D359" s="2">
         <v>24.0</v>
       </c>
       <c r="E359" s="1" t="s">
@@ -14021,10 +14373,11 @@
       <c r="F359" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H359" s="2" t="s">
+      <c r="G359" s="3"/>
+      <c r="H359" s="4" t="s">
         <v>1362</v>
       </c>
-      <c r="I359" s="3" t="s">
+      <c r="I359" s="5" t="s">
         <v>1363</v>
       </c>
     </row>
@@ -14038,7 +14391,7 @@
       <c r="C360" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D360" s="1">
+      <c r="D360" s="2">
         <v>25.0</v>
       </c>
       <c r="E360" s="1" t="s">
@@ -14047,10 +14400,11 @@
       <c r="F360" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H360" s="2" t="s">
+      <c r="G360" s="3"/>
+      <c r="H360" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="I360" s="3" t="s">
+      <c r="I360" s="5" t="s">
         <v>1367</v>
       </c>
     </row>
@@ -14064,7 +14418,7 @@
       <c r="C361" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D361" s="1">
+      <c r="D361" s="2">
         <v>26.0</v>
       </c>
       <c r="E361" s="1" t="s">
@@ -14073,10 +14427,11 @@
       <c r="F361" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H361" s="2" t="s">
+      <c r="G361" s="3"/>
+      <c r="H361" s="4" t="s">
         <v>1370</v>
       </c>
-      <c r="I361" s="3" t="s">
+      <c r="I361" s="5" t="s">
         <v>1371</v>
       </c>
     </row>
@@ -14090,7 +14445,7 @@
       <c r="C362" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D362" s="1">
+      <c r="D362" s="2">
         <v>27.0</v>
       </c>
       <c r="E362" s="1" t="s">
@@ -14099,10 +14454,11 @@
       <c r="F362" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H362" s="2" t="s">
+      <c r="G362" s="3"/>
+      <c r="H362" s="4" t="s">
         <v>1374</v>
       </c>
-      <c r="I362" s="3" t="s">
+      <c r="I362" s="5" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -14116,7 +14472,7 @@
       <c r="C363" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D363" s="1">
+      <c r="D363" s="2">
         <v>28.0</v>
       </c>
       <c r="E363" s="1" t="s">
@@ -14125,10 +14481,11 @@
       <c r="F363" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H363" s="2" t="s">
+      <c r="G363" s="3"/>
+      <c r="H363" s="4" t="s">
         <v>1378</v>
       </c>
-      <c r="I363" s="3" t="s">
+      <c r="I363" s="5" t="s">
         <v>1379</v>
       </c>
     </row>
@@ -14142,7 +14499,7 @@
       <c r="C364" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D364" s="1">
+      <c r="D364" s="2">
         <v>29.0</v>
       </c>
       <c r="E364" s="1" t="s">
@@ -14151,10 +14508,11 @@
       <c r="F364" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H364" s="2" t="s">
+      <c r="G364" s="3"/>
+      <c r="H364" s="4" t="s">
         <v>1382</v>
       </c>
-      <c r="I364" s="3" t="s">
+      <c r="I364" s="5" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -14168,7 +14526,7 @@
       <c r="C365" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D365" s="1">
+      <c r="D365" s="2">
         <v>30.0</v>
       </c>
       <c r="E365" s="1" t="s">
@@ -14177,10 +14535,11 @@
       <c r="F365" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H365" s="2" t="s">
+      <c r="G365" s="3"/>
+      <c r="H365" s="4" t="s">
         <v>1386</v>
       </c>
-      <c r="I365" s="3" t="s">
+      <c r="I365" s="5" t="s">
         <v>1387</v>
       </c>
     </row>
@@ -14194,7 +14553,7 @@
       <c r="C366" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D366" s="1">
+      <c r="D366" s="2">
         <v>31.0</v>
       </c>
       <c r="E366" s="1" t="s">
@@ -14203,10 +14562,11 @@
       <c r="F366" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H366" s="2" t="s">
+      <c r="G366" s="3"/>
+      <c r="H366" s="4" t="s">
         <v>1390</v>
       </c>
-      <c r="I366" s="3" t="s">
+      <c r="I366" s="5" t="s">
         <v>1391</v>
       </c>
     </row>
@@ -14220,7 +14580,7 @@
       <c r="C367" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D367" s="1">
+      <c r="D367" s="2">
         <v>32.0</v>
       </c>
       <c r="E367" s="1" t="s">
@@ -14229,10 +14589,11 @@
       <c r="F367" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H367" s="2" t="s">
+      <c r="G367" s="3"/>
+      <c r="H367" s="4" t="s">
         <v>1394</v>
       </c>
-      <c r="I367" s="3" t="s">
+      <c r="I367" s="5" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -14246,7 +14607,7 @@
       <c r="C368" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D368" s="1">
+      <c r="D368" s="2">
         <v>33.0</v>
       </c>
       <c r="E368" s="1" t="s">
@@ -14255,10 +14616,11 @@
       <c r="F368" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H368" s="2" t="s">
+      <c r="G368" s="3"/>
+      <c r="H368" s="4" t="s">
         <v>1398</v>
       </c>
-      <c r="I368" s="3" t="s">
+      <c r="I368" s="5" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -14272,7 +14634,7 @@
       <c r="C369" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D369" s="1">
+      <c r="D369" s="2">
         <v>34.0</v>
       </c>
       <c r="E369" s="1" t="s">
@@ -14281,10 +14643,11 @@
       <c r="F369" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H369" s="2" t="s">
+      <c r="G369" s="3"/>
+      <c r="H369" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="I369" s="3" t="s">
+      <c r="I369" s="5" t="s">
         <v>1403</v>
       </c>
     </row>
@@ -14298,7 +14661,7 @@
       <c r="C370" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D370" s="1">
+      <c r="D370" s="2">
         <v>35.0</v>
       </c>
       <c r="E370" s="1" t="s">
@@ -14307,10 +14670,11 @@
       <c r="F370" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H370" s="2" t="s">
+      <c r="G370" s="3"/>
+      <c r="H370" s="4" t="s">
         <v>1406</v>
       </c>
-      <c r="I370" s="3" t="s">
+      <c r="I370" s="5" t="s">
         <v>1407</v>
       </c>
     </row>
@@ -14324,7 +14688,7 @@
       <c r="C371" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D371" s="1">
+      <c r="D371" s="2">
         <v>36.0</v>
       </c>
       <c r="E371" s="1" t="s">
@@ -14333,10 +14697,11 @@
       <c r="F371" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H371" s="2" t="s">
+      <c r="G371" s="3"/>
+      <c r="H371" s="4" t="s">
         <v>1189</v>
       </c>
-      <c r="I371" s="3" t="s">
+      <c r="I371" s="5" t="s">
         <v>1190</v>
       </c>
     </row>
@@ -14350,7 +14715,7 @@
       <c r="C372" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D372" s="1">
+      <c r="D372" s="2">
         <v>37.0</v>
       </c>
       <c r="E372" s="1" t="s">
@@ -14359,10 +14724,11 @@
       <c r="F372" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H372" s="2" t="s">
+      <c r="G372" s="3"/>
+      <c r="H372" s="4" t="s">
         <v>1412</v>
       </c>
-      <c r="I372" s="3" t="s">
+      <c r="I372" s="5" t="s">
         <v>1413</v>
       </c>
     </row>
@@ -14376,7 +14742,7 @@
       <c r="C373" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D373" s="1">
+      <c r="D373" s="2">
         <v>38.0</v>
       </c>
       <c r="E373" s="1" t="s">
@@ -14385,10 +14751,11 @@
       <c r="F373" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H373" s="2" t="s">
+      <c r="G373" s="3"/>
+      <c r="H373" s="4" t="s">
         <v>1416</v>
       </c>
-      <c r="I373" s="3" t="s">
+      <c r="I373" s="5" t="s">
         <v>1417</v>
       </c>
     </row>
@@ -14402,7 +14769,7 @@
       <c r="C374" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D374" s="1">
+      <c r="D374" s="2">
         <v>39.0</v>
       </c>
       <c r="E374" s="1" t="s">
@@ -14411,10 +14778,11 @@
       <c r="F374" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H374" s="2" t="s">
+      <c r="G374" s="3"/>
+      <c r="H374" s="4" t="s">
         <v>1420</v>
       </c>
-      <c r="I374" s="3" t="s">
+      <c r="I374" s="5" t="s">
         <v>1421</v>
       </c>
     </row>
@@ -14428,7 +14796,7 @@
       <c r="C375" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D375" s="1">
+      <c r="D375" s="2">
         <v>40.0</v>
       </c>
       <c r="E375" s="1" t="s">
@@ -14437,10 +14805,11 @@
       <c r="F375" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H375" s="2" t="s">
+      <c r="G375" s="3"/>
+      <c r="H375" s="4" t="s">
         <v>1424</v>
       </c>
-      <c r="I375" s="3" t="s">
+      <c r="I375" s="5" t="s">
         <v>1425</v>
       </c>
     </row>
@@ -14454,7 +14823,7 @@
       <c r="C376" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D376" s="1">
+      <c r="D376" s="2">
         <v>41.0</v>
       </c>
       <c r="E376" s="1" t="s">
@@ -14463,10 +14832,11 @@
       <c r="F376" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H376" s="2" t="s">
+      <c r="G376" s="3"/>
+      <c r="H376" s="4" t="s">
         <v>1428</v>
       </c>
-      <c r="I376" s="3" t="s">
+      <c r="I376" s="5" t="s">
         <v>1429</v>
       </c>
     </row>
@@ -14480,7 +14850,7 @@
       <c r="C377" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D377" s="1">
+      <c r="D377" s="2">
         <v>42.0</v>
       </c>
       <c r="E377" s="1" t="s">
@@ -14489,10 +14859,11 @@
       <c r="F377" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H377" s="2" t="s">
+      <c r="G377" s="3"/>
+      <c r="H377" s="4" t="s">
         <v>1432</v>
       </c>
-      <c r="I377" s="3" t="s">
+      <c r="I377" s="5" t="s">
         <v>1433</v>
       </c>
     </row>
@@ -14506,7 +14877,7 @@
       <c r="C378" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D378" s="1">
+      <c r="D378" s="2">
         <v>43.0</v>
       </c>
       <c r="E378" s="1" t="s">
@@ -14515,10 +14886,11 @@
       <c r="F378" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H378" s="2" t="s">
+      <c r="G378" s="3"/>
+      <c r="H378" s="4" t="s">
         <v>1436</v>
       </c>
-      <c r="I378" s="3" t="s">
+      <c r="I378" s="5" t="s">
         <v>1437</v>
       </c>
     </row>
@@ -14532,7 +14904,7 @@
       <c r="C379" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D379" s="1">
+      <c r="D379" s="2">
         <v>44.0</v>
       </c>
       <c r="E379" s="1" t="s">
@@ -14541,10 +14913,11 @@
       <c r="F379" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H379" s="2" t="s">
+      <c r="G379" s="3"/>
+      <c r="H379" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="I379" s="3" t="s">
+      <c r="I379" s="5" t="s">
         <v>1441</v>
       </c>
     </row>
@@ -14558,7 +14931,7 @@
       <c r="C380" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D380" s="1">
+      <c r="D380" s="2">
         <v>45.0</v>
       </c>
       <c r="E380" s="1" t="s">
@@ -14567,10 +14940,11 @@
       <c r="F380" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H380" s="2" t="s">
+      <c r="G380" s="3"/>
+      <c r="H380" s="4" t="s">
         <v>1444</v>
       </c>
-      <c r="I380" s="3" t="s">
+      <c r="I380" s="5" t="s">
         <v>1445</v>
       </c>
     </row>
@@ -14584,7 +14958,7 @@
       <c r="C381" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D381" s="1">
+      <c r="D381" s="2">
         <v>46.0</v>
       </c>
       <c r="E381" s="1" t="s">
@@ -14593,10 +14967,11 @@
       <c r="F381" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H381" s="2" t="s">
+      <c r="G381" s="3"/>
+      <c r="H381" s="4" t="s">
         <v>1448</v>
       </c>
-      <c r="I381" s="3" t="s">
+      <c r="I381" s="5" t="s">
         <v>1449</v>
       </c>
     </row>
@@ -14610,7 +14985,7 @@
       <c r="C382" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D382" s="1">
+      <c r="D382" s="2">
         <v>47.0</v>
       </c>
       <c r="E382" s="1" t="s">
@@ -14619,10 +14994,11 @@
       <c r="F382" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H382" s="2" t="s">
+      <c r="G382" s="3"/>
+      <c r="H382" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="I382" s="3" t="s">
+      <c r="I382" s="5" t="s">
         <v>1453</v>
       </c>
     </row>
@@ -14636,7 +15012,7 @@
       <c r="C383" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D383" s="1">
+      <c r="D383" s="2">
         <v>48.0</v>
       </c>
       <c r="E383" s="1" t="s">
@@ -14645,10 +15021,11 @@
       <c r="F383" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H383" s="2" t="s">
+      <c r="G383" s="3"/>
+      <c r="H383" s="4" t="s">
         <v>1456</v>
       </c>
-      <c r="I383" s="3" t="s">
+      <c r="I383" s="5" t="s">
         <v>1457</v>
       </c>
     </row>
@@ -14662,7 +15039,7 @@
       <c r="C384" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D384" s="1">
+      <c r="D384" s="2">
         <v>49.0</v>
       </c>
       <c r="E384" s="1" t="s">
@@ -14671,10 +15048,11 @@
       <c r="F384" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H384" s="2" t="s">
+      <c r="G384" s="3"/>
+      <c r="H384" s="4" t="s">
         <v>1460</v>
       </c>
-      <c r="I384" s="3" t="s">
+      <c r="I384" s="5" t="s">
         <v>1461</v>
       </c>
     </row>
@@ -14688,7 +15066,7 @@
       <c r="C385" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D385" s="1">
+      <c r="D385" s="2">
         <v>50.0</v>
       </c>
       <c r="E385" s="1" t="s">
@@ -14697,10 +15075,11 @@
       <c r="F385" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="H385" s="2" t="s">
+      <c r="G385" s="3"/>
+      <c r="H385" s="4" t="s">
         <v>1464</v>
       </c>
-      <c r="I385" s="3" t="s">
+      <c r="I385" s="5" t="s">
         <v>1465</v>
       </c>
     </row>
